--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -6956,7 +6956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>3</x:v>
@@ -6974,7 +6974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V68" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
@@ -18362,7 +18362,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="J236" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K236" s="0" t="n">
         <x:v>0</x:v>
@@ -18374,7 +18374,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>2</x:v>
@@ -18398,7 +18398,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -6929,7 +6929,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
         <x:v>0</x:v>
@@ -6956,7 +6956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>3</x:v>
@@ -6974,7 +6974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V68" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
@@ -7296,7 +7296,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
         <x:v>0</x:v>
@@ -7314,7 +7314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V73" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
@@ -13871,7 +13871,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I170" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J170" s="0" t="n">
         <x:v>3</x:v>
@@ -13910,7 +13910,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13933,7 +13933,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
@@ -13954,7 +13954,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>0</x:v>
@@ -13978,7 +13978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -6752,7 +6752,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="n">
         <x:v>0</x:v>
@@ -6770,7 +6770,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -9105,7 +9105,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G100" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
         <x:v>0</x:v>
@@ -9132,7 +9132,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P100" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q100" s="0" t="n">
         <x:v>1</x:v>
@@ -9150,7 +9150,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V100" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -9649,7 +9649,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H108" s="0" t="n">
         <x:v>0</x:v>
@@ -9694,7 +9694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V108" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -7881,7 +7881,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
         <x:v>0</x:v>
@@ -7926,7 +7926,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V82" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -9649,7 +9649,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H108" s="0" t="n">
         <x:v>0</x:v>
@@ -9691,10 +9691,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U108" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V108" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2802,7 +2802,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -15905,7 +15905,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H200" s="0" t="n">
         <x:v>0</x:v>
@@ -15950,7 +15950,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -8857,10 +8857,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O96" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P96" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q96" s="0" t="n">
         <x:v>0</x:v>
@@ -8878,7 +8878,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V96" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:22">
@@ -17496,7 +17496,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P223" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q223" s="0" t="n">
         <x:v>0</x:v>
@@ -17514,7 +17514,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V223" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -12369,7 +12369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
@@ -12414,7 +12414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10338,7 +10338,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -19849,52 +19849,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G258" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J258" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U258" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V258" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J258" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V258" s="0" t="n">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10353,7 +10353,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
         <x:v>88</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>383</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -20257,7 +20257,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G264" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H264" s="0" t="n">
         <x:v>0</x:v>
@@ -20278,7 +20278,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N264" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O264" s="0" t="n">
         <x:v>0</x:v>
@@ -20302,7 +20302,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V264" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
@@ -21277,7 +21277,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G279" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H279" s="0" t="n">
         <x:v>0</x:v>
@@ -21322,7 +21322,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V279" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -12369,7 +12369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H148" s="0" t="n">
         <x:v>0</x:v>
@@ -12414,7 +12414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V148" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -18489,7 +18489,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G238" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H238" s="0" t="n">
         <x:v>0</x:v>
@@ -18516,7 +18516,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P238" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="n">
         <x:v>1</x:v>
@@ -18528,13 +18528,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T238" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="U238" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -5016,7 +5016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
         <x:v>0</x:v>
@@ -5052,7 +5052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="n">
         <x:v>0</x:v>
@@ -5070,7 +5070,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V40" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22">
@@ -5093,7 +5093,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
         <x:v>0</x:v>
@@ -5138,7 +5138,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V41" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
@@ -5569,7 +5569,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
         <x:v>0</x:v>
@@ -5590,7 +5590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
         <x:v>0</x:v>
@@ -5608,13 +5608,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V48" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
@@ -8180,7 +8180,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="P86" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="n">
         <x:v>1</x:v>
@@ -8198,7 +8198,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="V86" s="0" t="n">
-        <x:v>674</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
@@ -10350,7 +10350,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>382</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -16653,7 +16653,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G211" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H211" s="0" t="n">
         <x:v>0</x:v>
@@ -16698,7 +16698,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10338,7 +10338,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>381</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -18516,7 +18516,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P238" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="n">
         <x:v>1</x:v>
@@ -18534,7 +18534,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -6956,7 +6956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>3</x:v>
@@ -6974,7 +6974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V68" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -9649,7 +9649,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H108" s="0" t="n">
         <x:v>0</x:v>
@@ -9658,7 +9658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J108" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K108" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -14536,25 +14536,25 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I180" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J180" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>0</x:v>
@@ -14566,31 +14566,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R180" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S180" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="T180" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="T180" s="0" t="n">
-        <x:v>13</x:v>
       </x:c>
       <x:c r="U180" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>356</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10329,7 +10329,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
@@ -10350,7 +10350,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>377</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -20733,7 +20733,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G271" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H271" s="0" t="n">
         <x:v>0</x:v>
@@ -20778,7 +20778,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V271" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -19849,7 +19849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G258" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H258" s="0" t="n">
         <x:v>0</x:v>
@@ -19894,7 +19894,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V258" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10317,7 +10317,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>12</x:v>
@@ -10326,7 +10326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
         <x:v>39</x:v>
@@ -10338,7 +10338,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10350,13 +10350,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>373</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10335,10 +10335,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I118" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10350,13 +10350,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -15018,10 +15018,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G187" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H187" s="0" t="n">
         <x:v>1</x:v>
@@ -15066,7 +15066,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -3074,7 +3074,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -3098,7 +3098,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2802,7 +2802,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -10326,7 +10326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
         <x:v>39</x:v>
@@ -10335,10 +10335,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I118" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10350,13 +10350,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>354</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
@@ -21372,7 +21372,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="P280" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q280" s="0" t="n">
         <x:v>0</x:v>
@@ -21390,7 +21390,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="V280" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10317,7 +10317,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>12</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10338,7 +10338,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2772,7 +2772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
         <x:v>0</x:v>
@@ -2790,7 +2790,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>2</x:v>
@@ -2802,7 +2802,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2826,7 +2826,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -8765,7 +8765,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G95" s="0" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H95" s="0" t="n">
         <x:v>2</x:v>
@@ -8810,7 +8810,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="V95" s="0" t="n">
-        <x:v>832</x:v>
+        <x:v>833</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -7086,7 +7086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
         <x:v>0</x:v>
@@ -7110,7 +7110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V70" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -10338,7 +10338,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10338,7 +10338,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -8289,7 +8289,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
         <x:v>0</x:v>
@@ -8331,10 +8331,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V88" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10371,10 +10371,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -3142,7 +3142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
         <x:v>0</x:v>
@@ -3166,7 +3166,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V12" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22">
@@ -10317,7 +10317,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>12</x:v>
@@ -10329,7 +10329,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>332</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -9649,7 +9649,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H108" s="0" t="n">
         <x:v>0</x:v>
@@ -9694,7 +9694,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V108" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10329,7 +10329,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
@@ -10338,7 +10338,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10356,7 +10356,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10371,10 +10371,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>328</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -3053,7 +3053,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>0</x:v>
@@ -3092,13 +3092,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U11" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -10338,7 +10338,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
@@ -10374,7 +10374,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -10317,7 +10317,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>12</x:v>
@@ -10329,7 +10329,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
         <x:v>0</x:v>
@@ -10350,13 +10350,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N118" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>321</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -8316,7 +8316,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P88" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="n">
         <x:v>0</x:v>
@@ -8334,7 +8334,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V88" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
@@ -10338,25 +10338,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M118" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N118" s="0" t="n">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="K118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L118" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M118" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N118" s="0" t="n">
-        <x:v>46</x:v>
       </x:c>
       <x:c r="O118" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P118" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="Q118" s="0" t="n">
         <x:v>1</x:v>
@@ -10368,13 +10368,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T118" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U118" s="0" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="V118" s="0" t="n">
-        <x:v>311</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -14474,10 +14474,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H179" s="0" t="n">
         <x:v>0</x:v>
@@ -14486,7 +14486,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J179" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K179" s="0" t="n">
         <x:v>0</x:v>
@@ -14498,13 +14498,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N179" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O179" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P179" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="n">
         <x:v>3</x:v>
@@ -14513,16 +14513,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S179" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T179" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U179" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V179" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14536,16 +14536,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H180" s="0" t="n">
         <x:v>0</x:v>
@@ -14566,19 +14566,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N180" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O180" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="P180" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="R180" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S180" s="0" t="n">
         <x:v>6</x:v>
@@ -14590,7 +14590,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="V180" s="0" t="n">
-        <x:v>266</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -8144,7 +8144,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
         <x:v>0</x:v>
@@ -8153,7 +8153,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
         <x:v>1</x:v>
@@ -8174,10 +8174,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="N86" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O86" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P86" s="0" t="n">
         <x:v>187</x:v>
@@ -8192,13 +8192,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="T86" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="U86" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="V86" s="0" t="n">
-        <x:v>673</x:v>
+        <x:v>683</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
@@ -9232,7 +9232,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
         <x:v>0</x:v>
@@ -9241,7 +9241,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G102" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H102" s="0" t="n">
         <x:v>0</x:v>
@@ -9262,7 +9262,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N102" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O102" s="0" t="n">
         <x:v>0</x:v>
@@ -9283,10 +9283,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="U102" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2645,7 +2645,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
         <x:v>0</x:v>
@@ -2654,7 +2654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
         <x:v>2</x:v>
@@ -2666,7 +2666,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
         <x:v>0</x:v>
@@ -2690,7 +2690,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V5" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -3053,7 +3053,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>0</x:v>
@@ -3074,7 +3074,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -3098,7 +3098,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -8280,16 +8280,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
         <x:v>0</x:v>
@@ -8316,7 +8316,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P88" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="n">
         <x:v>0</x:v>
@@ -8328,13 +8328,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T88" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U88" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="V88" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -6814,7 +6814,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
         <x:v>0</x:v>
@@ -6838,7 +6838,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V66" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -15902,7 +15902,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
         <x:v>166</x:v>
@@ -15932,7 +15932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P200" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="n">
         <x:v>4</x:v>
@@ -15950,7 +15950,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V200" s="0" t="n">
-        <x:v>557</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -8221,7 +8221,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
         <x:v>0</x:v>
@@ -8242,7 +8242,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N87" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O87" s="0" t="n">
         <x:v>2</x:v>
@@ -8260,13 +8260,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T87" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U87" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V87" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -1549,7 +1549,7 @@
     <x:t>MN0730100</x:t>
   </x:si>
   <x:si>
-    <x:t>Cold Spring/Richmond Police Dept</x:t>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0730200</x:t>
@@ -1585,7 +1585,7 @@
     <x:t>MN0730800</x:t>
   </x:si>
   <x:si>
-    <x:t>Belgrade Police Dept</x:t>
+    <x:t>Belgrade Brooten Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0731100</x:t>
@@ -1795,7 +1795,7 @@
     <x:t>MN0821100</x:t>
   </x:si>
   <x:si>
-    <x:t>Woodbury Public Safety</x:t>
+    <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -1891,7 +1891,7 @@
     <x:t>MNCON0000</x:t>
   </x:si>
   <x:si>
-    <x:t>MN Dept of Natural Resources - License Bureau</x:t>
+    <x:t>MN Dept of Natural Resources - Enforcement Division</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI01900</x:t>
@@ -1903,7 +1903,7 @@
     <x:t>MNDI02400</x:t>
   </x:si>
   <x:si>
-    <x:t>Mille Lacs Band of Ojibwe Tribal Police Dept</x:t>
+    <x:t>Mille Lacs Tribal Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI07000</x:t>
@@ -3092,13 +3092,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U11" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -841,7 +841,7 @@
     <x:t>Brooklyn Park Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
+    <x:t>57</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270400</x:t>
@@ -1000,901 +1000,901 @@
     <x:t>Eden Prairie Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bovey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nashwauk Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0350000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0370000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac Qui Parle County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cleveland Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0410000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winsted Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0450000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburn Welcome Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Onamia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royalton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rochester Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fergus Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perham Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York Mills Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thief River Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0580000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0590000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crookston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Grand Forks Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glenwood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maplewood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mounds View Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Brighton Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0621000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Bear Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0630000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hector Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Buffalo Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dundas Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lonsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0670000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Warroad Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Babbitt Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisholm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duluth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ely Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eveleth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gilbert Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hibbing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Virginia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Floodwood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hermantown Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Duluth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belle Plaine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jordan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Prague Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shakopee Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prior Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0701000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elko New Market Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Big Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elk River Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bovey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nashwauk Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0350000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0370000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac Qui Parle County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cleveland Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0410000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winsted Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0450000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburn Welcome Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Onamia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Royalton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rochester Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fergus Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perham Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Mills Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thief River Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0580000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0590000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crookston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Grand Forks Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glenwood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maplewood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mounds View Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Brighton Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0621000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Bear Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0630000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hector Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Buffalo Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Northfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dundas Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lonsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0670000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Warroad Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Babbitt Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisholm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duluth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ely Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eveleth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gilbert Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hibbing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Virginia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Floodwood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hermantown Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Duluth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belle Plaine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jordan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Prague Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shakopee Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prior Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0701000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elko New Market Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Big Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elk River Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0710400</x:t>
@@ -8730,7 +8730,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>25</x:v>
@@ -10063,7 +10063,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="H108" s="0" t="s">
         <x:v>25</x:v>
@@ -10108,15 +10108,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V108" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10131,7 +10131,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>24</x:v>
@@ -10176,15 +10176,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10249,10 +10249,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10317,10 +10317,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10385,10 +10385,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10453,10 +10453,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10521,10 +10521,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10589,10 +10589,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10657,10 +10657,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10725,10 +10725,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>98</x:v>
@@ -10788,15 +10788,15 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10861,10 +10861,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10929,10 +10929,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10947,7 +10947,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10968,7 +10968,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="O121" s="0" t="s">
         <x:v>25</x:v>
@@ -10992,15 +10992,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V121" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11065,10 +11065,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11128,15 +11128,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11201,10 +11201,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11269,10 +11269,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11337,10 +11337,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11405,10 +11405,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11473,10 +11473,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11541,10 +11541,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11609,10 +11609,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11677,10 +11677,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11745,10 +11745,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11813,10 +11813,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11876,15 +11876,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11899,7 +11899,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11920,7 +11920,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
@@ -11944,15 +11944,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -12017,10 +12017,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -12085,10 +12085,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -12148,15 +12148,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12221,10 +12221,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12289,10 +12289,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12357,10 +12357,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12425,10 +12425,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12493,10 +12493,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12561,10 +12561,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12629,10 +12629,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12697,10 +12697,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12765,10 +12765,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12833,10 +12833,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12901,10 +12901,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12969,10 +12969,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -13037,10 +13037,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13105,10 +13105,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13173,10 +13173,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13236,15 +13236,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13309,10 +13309,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13377,10 +13377,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13445,10 +13445,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13513,10 +13513,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13581,10 +13581,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13649,10 +13649,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13694,7 +13694,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13717,10 +13717,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13785,10 +13785,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13853,10 +13853,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13921,10 +13921,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13989,10 +13989,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14057,10 +14057,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14125,10 +14125,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14193,10 +14193,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14261,10 +14261,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14329,10 +14329,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14397,10 +14397,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14465,10 +14465,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14533,10 +14533,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14601,10 +14601,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14669,10 +14669,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14737,10 +14737,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14776,7 +14776,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14800,15 +14800,15 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14873,10 +14873,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14936,15 +14936,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
@@ -14959,7 +14959,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14986,7 +14986,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15004,15 +15004,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15077,10 +15077,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15145,10 +15145,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15213,10 +15213,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15281,10 +15281,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15349,10 +15349,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15417,10 +15417,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15456,7 +15456,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N187" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="O187" s="0" t="s">
         <x:v>25</x:v>
@@ -15480,15 +15480,15 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15553,10 +15553,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15616,15 +15616,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15689,10 +15689,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15707,7 +15707,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -15752,15 +15752,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15825,10 +15825,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15893,10 +15893,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>32</x:v>
@@ -15956,15 +15956,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>24</x:v>
@@ -16024,15 +16024,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -16097,10 +16097,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>27</x:v>
@@ -16160,7 +16160,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V197" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -16316,7 +16316,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="G200" s="0" t="s">
         <x:v>246</x:v>
@@ -16976,7 +16976,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -17112,7 +17112,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -17768,7 +17768,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>25</x:v>
@@ -17792,15 +17792,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>585</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>586</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17865,10 +17865,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>587</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>588</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17933,10 +17933,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>589</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>590</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -18001,10 +18001,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>591</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>592</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -18069,10 +18069,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>593</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>594</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -18137,10 +18137,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>595</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>596</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18205,10 +18205,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>597</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>598</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -18273,10 +18273,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>599</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>600</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18341,10 +18341,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>601</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>602</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18409,10 +18409,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>603</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>604</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18477,10 +18477,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>605</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>606</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18545,10 +18545,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>607</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>608</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18613,10 +18613,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>609</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>610</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18631,7 +18631,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18676,15 +18676,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V234" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>612</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>613</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18749,10 +18749,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18788,7 +18788,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N236" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="O236" s="0" t="s">
         <x:v>32</x:v>
@@ -18812,15 +18812,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>615</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>617</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>618</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18885,10 +18885,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>619</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>620</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -18903,7 +18903,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G238" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="H238" s="0" t="s">
         <x:v>25</x:v>
@@ -18930,7 +18930,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -18948,15 +18948,15 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>621</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>623</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>624</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -19021,10 +19021,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>625</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>626</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -19039,7 +19039,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G240" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="H240" s="0" t="s">
         <x:v>25</x:v>
@@ -19084,7 +19084,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V240" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
@@ -19152,7 +19152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -19492,7 +19492,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19672,7 +19672,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>55</x:v>
@@ -20716,7 +20716,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>615</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
@@ -23867,7 +23867,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G311" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="H311" s="0" t="s">
         <x:v>25</x:v>
@@ -24048,7 +24048,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V313" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:22">
@@ -24207,7 +24207,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G316" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H316" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -1072,7 +1072,10 @@
     <x:t>Metropolitan Transit Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>305</x:t>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306</x:t>
   </x:si>
   <x:si>
     <x:t>MN0280000</x:t>
@@ -1195,9 +1198,6 @@
     <x:t>120</x:t>
   </x:si>
   <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
     <x:t>333</x:t>
   </x:si>
   <x:si>
@@ -1745,6 +1745,9 @@
   </x:si>
   <x:si>
     <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
   </x:si>
   <x:si>
     <x:t>MN0690200</x:t>
@@ -10764,7 +10767,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>27</x:v>
@@ -10788,15 +10791,15 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10861,10 +10864,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10929,10 +10932,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10947,7 +10950,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10968,7 +10971,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="O121" s="0" t="s">
         <x:v>25</x:v>
@@ -10992,15 +10995,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V121" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11065,10 +11068,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11128,15 +11131,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11201,10 +11204,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11269,10 +11272,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11337,10 +11340,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11405,10 +11408,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11473,10 +11476,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11541,10 +11544,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11609,10 +11612,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11677,10 +11680,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11745,10 +11748,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11813,10 +11816,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11876,15 +11879,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11899,7 +11902,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11920,7 +11923,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
@@ -12148,7 +12151,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -13236,7 +13239,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -15707,7 +15710,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -17540,7 +17543,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F218" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G218" s="0" t="s">
         <x:v>34</x:v>
@@ -17570,7 +17573,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P218" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="s">
         <x:v>25</x:v>
@@ -17588,15 +17591,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>577</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17661,10 +17664,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17729,10 +17732,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17792,15 +17795,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17865,10 +17868,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17933,10 +17936,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -18001,10 +18004,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -18069,10 +18072,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -18137,10 +18140,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18205,10 +18208,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -18273,10 +18276,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18341,10 +18344,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18409,10 +18412,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18477,10 +18480,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18545,10 +18548,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18613,10 +18616,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18676,15 +18679,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V234" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18749,10 +18752,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18812,15 +18815,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18885,10 +18888,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -18903,7 +18906,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G238" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="H238" s="0" t="s">
         <x:v>25</x:v>
@@ -18948,15 +18951,15 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -19021,10 +19024,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -19084,15 +19087,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V240" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -19157,10 +19160,10 @@
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19225,10 +19228,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19293,10 +19296,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19361,10 +19364,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19429,10 +19432,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19492,15 +19495,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19565,10 +19568,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>25</x:v>
@@ -19633,10 +19636,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>27</x:v>
@@ -19651,7 +19654,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G249" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="H249" s="0" t="s">
         <x:v>32</x:v>
@@ -19672,13 +19675,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="P249" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="Q249" s="0" t="s">
         <x:v>41</x:v>
@@ -19696,15 +19699,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V249" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19769,10 +19772,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19837,10 +19840,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19905,10 +19908,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19973,10 +19976,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -20041,10 +20044,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -20109,10 +20112,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20177,10 +20180,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20245,10 +20248,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20313,10 +20316,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20381,10 +20384,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20449,10 +20452,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20517,10 +20520,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20585,10 +20588,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20653,10 +20656,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20716,15 +20719,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20789,10 +20792,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20857,10 +20860,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20925,10 +20928,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20993,10 +20996,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -21061,10 +21064,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -21129,10 +21132,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21197,10 +21200,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21265,10 +21268,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21333,10 +21336,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21401,10 +21404,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21469,10 +21472,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21537,10 +21540,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21605,10 +21608,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21673,10 +21676,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21741,10 +21744,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>32</x:v>
@@ -21804,15 +21807,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V280" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21877,10 +21880,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21945,10 +21948,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -22013,10 +22016,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>25</x:v>
@@ -22081,10 +22084,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>24</x:v>
@@ -22149,10 +22152,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22217,10 +22220,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>32</x:v>
@@ -22280,15 +22283,15 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="V287" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22353,10 +22356,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22421,10 +22424,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22489,10 +22492,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22557,10 +22560,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22625,10 +22628,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22693,10 +22696,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22761,10 +22764,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22829,10 +22832,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22897,10 +22900,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22965,10 +22968,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>32</x:v>
@@ -22983,7 +22986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G298" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="H298" s="0" t="s">
         <x:v>25</x:v>
@@ -23004,7 +23007,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="N298" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="O298" s="0" t="s">
         <x:v>24</x:v>
@@ -23028,15 +23031,15 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="V298" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -23101,10 +23104,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>
@@ -23169,10 +23172,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>25</x:v>
@@ -23237,10 +23240,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>25</x:v>
@@ -23305,10 +23308,10 @@
     </x:row>
     <x:row r="303" spans="1:22">
       <x:c r="A303" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="C303" s="0" t="s">
         <x:v>25</x:v>
@@ -23323,7 +23326,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G303" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="H303" s="0" t="s">
         <x:v>25</x:v>
@@ -23368,15 +23371,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V303" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:22">
       <x:c r="A304" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="C304" s="0" t="s">
         <x:v>25</x:v>
@@ -23436,15 +23439,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="V304" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:22">
       <x:c r="A305" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
         <x:v>25</x:v>
@@ -23504,15 +23507,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V305" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:22">
       <x:c r="A306" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
         <x:v>25</x:v>
@@ -23577,10 +23580,10 @@
     </x:row>
     <x:row r="307" spans="1:22">
       <x:c r="A307" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
         <x:v>25</x:v>
@@ -23645,10 +23648,10 @@
     </x:row>
     <x:row r="308" spans="1:22">
       <x:c r="A308" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
         <x:v>25</x:v>
@@ -23713,10 +23716,10 @@
     </x:row>
     <x:row r="309" spans="1:22">
       <x:c r="A309" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
         <x:v>25</x:v>
@@ -23781,10 +23784,10 @@
     </x:row>
     <x:row r="310" spans="1:22">
       <x:c r="A310" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="C310" s="0" t="s">
         <x:v>25</x:v>
@@ -23849,10 +23852,10 @@
     </x:row>
     <x:row r="311" spans="1:22">
       <x:c r="A311" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="C311" s="0" t="s">
         <x:v>25</x:v>
@@ -23917,10 +23920,10 @@
     </x:row>
     <x:row r="312" spans="1:22">
       <x:c r="A312" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
         <x:v>25</x:v>
@@ -23985,10 +23988,10 @@
     </x:row>
     <x:row r="313" spans="1:22">
       <x:c r="A313" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="C313" s="0" t="s">
         <x:v>25</x:v>
@@ -24053,10 +24056,10 @@
     </x:row>
     <x:row r="314" spans="1:22">
       <x:c r="A314" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="C314" s="0" t="s">
         <x:v>25</x:v>
@@ -24121,10 +24124,10 @@
     </x:row>
     <x:row r="315" spans="1:22">
       <x:c r="A315" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="C315" s="0" t="s">
         <x:v>25</x:v>
@@ -24189,10 +24192,10 @@
     </x:row>
     <x:row r="316" spans="1:22">
       <x:c r="A316" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="C316" s="0" t="s">
         <x:v>25</x:v>
@@ -24207,7 +24210,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G316" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H316" s="0" t="s">
         <x:v>25</x:v>
@@ -24257,10 +24260,10 @@
     </x:row>
     <x:row r="317" spans="1:22">
       <x:c r="A317" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="C317" s="0" t="s">
         <x:v>25</x:v>
@@ -24325,10 +24328,10 @@
     </x:row>
     <x:row r="318" spans="1:22">
       <x:c r="A318" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="C318" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2315,6 +2315,12 @@
   </x:si>
   <x:si>
     <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNDI02300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upper Sioux Community Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI02400</x:t>
@@ -2764,7 +2770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V318"/>
+  <x:dimension ref="A1:V319"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -23453,16 +23459,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D305" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E305" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F305" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G305" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H305" s="0" t="s">
         <x:v>25</x:v>
@@ -23471,7 +23477,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J305" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K305" s="0" t="s">
         <x:v>25</x:v>
@@ -23480,10 +23486,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M305" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N305" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O305" s="0" t="s">
         <x:v>25</x:v>
@@ -23501,13 +23507,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T305" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U305" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="V305" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:22">
@@ -23521,61 +23527,61 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D306" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E306" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F306" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G306" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J306" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="K306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M306" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N306" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T306" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="U306" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J306" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N306" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="O306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P306" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S306" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T306" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="U306" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>762</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
@@ -23595,10 +23601,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F307" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G307" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H307" s="0" t="s">
         <x:v>25</x:v>
@@ -23607,7 +23613,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J307" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K307" s="0" t="s">
         <x:v>25</x:v>
@@ -23619,13 +23625,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N307" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O307" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P307" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q307" s="0" t="s">
         <x:v>25</x:v>
@@ -23637,13 +23643,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T307" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="U307" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="V307" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:22">
@@ -23657,7 +23663,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D308" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E308" s="0" t="s">
         <x:v>25</x:v>
@@ -23666,7 +23672,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G308" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H308" s="0" t="s">
         <x:v>25</x:v>
@@ -23687,7 +23693,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N308" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O308" s="0" t="s">
         <x:v>25</x:v>
@@ -23705,13 +23711,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T308" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U308" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V308" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:22">
@@ -23725,17 +23731,17 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D309" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E309" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F309" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G309" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E309" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F309" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G309" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
       <x:c r="H309" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -23755,7 +23761,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N309" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O309" s="0" t="s">
         <x:v>25</x:v>
@@ -23773,13 +23779,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T309" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U309" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">
@@ -23793,7 +23799,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D310" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E310" s="0" t="s">
         <x:v>25</x:v>
@@ -23802,7 +23808,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G310" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H310" s="0" t="s">
         <x:v>25</x:v>
@@ -23823,7 +23829,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N310" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O310" s="0" t="s">
         <x:v>25</x:v>
@@ -23841,13 +23847,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T310" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U310" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>546</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
@@ -23861,7 +23867,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D311" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E311" s="0" t="s">
         <x:v>25</x:v>
@@ -23870,7 +23876,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G311" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H311" s="0" t="s">
         <x:v>25</x:v>
@@ -23891,7 +23897,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N311" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O311" s="0" t="s">
         <x:v>25</x:v>
@@ -23909,13 +23915,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T311" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U311" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V311" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:22">
@@ -23929,7 +23935,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D312" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E312" s="0" t="s">
         <x:v>25</x:v>
@@ -23938,7 +23944,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G312" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="H312" s="0" t="s">
         <x:v>25</x:v>
@@ -23959,7 +23965,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N312" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O312" s="0" t="s">
         <x:v>25</x:v>
@@ -23977,13 +23983,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T312" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="U312" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V312" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:22">
@@ -23997,16 +24003,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D313" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E313" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F313" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G313" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H313" s="0" t="s">
         <x:v>25</x:v>
@@ -24027,7 +24033,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N313" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O313" s="0" t="s">
         <x:v>25</x:v>
@@ -24045,13 +24051,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T313" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U313" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V313" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:22">
@@ -24065,16 +24071,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D314" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E314" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F314" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G314" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H314" s="0" t="s">
         <x:v>25</x:v>
@@ -24095,7 +24101,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N314" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O314" s="0" t="s">
         <x:v>25</x:v>
@@ -24113,13 +24119,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T314" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="U314" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V314" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:22">
@@ -24133,7 +24139,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D315" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E315" s="0" t="s">
         <x:v>25</x:v>
@@ -24142,7 +24148,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G315" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H315" s="0" t="s">
         <x:v>25</x:v>
@@ -24163,7 +24169,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N315" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="O315" s="0" t="s">
         <x:v>25</x:v>
@@ -24181,13 +24187,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T315" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="U315" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V315" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:22">
@@ -24210,7 +24216,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G316" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H316" s="0" t="s">
         <x:v>25</x:v>
@@ -24231,7 +24237,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N316" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O316" s="0" t="s">
         <x:v>25</x:v>
@@ -24249,13 +24255,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T316" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="U316" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V316" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:22">
@@ -24269,7 +24275,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D317" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E317" s="0" t="s">
         <x:v>25</x:v>
@@ -24278,7 +24284,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G317" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H317" s="0" t="s">
         <x:v>25</x:v>
@@ -24299,7 +24305,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N317" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O317" s="0" t="s">
         <x:v>25</x:v>
@@ -24323,7 +24329,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V317" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:22">
@@ -24337,7 +24343,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D318" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E318" s="0" t="s">
         <x:v>25</x:v>
@@ -24346,51 +24352,119 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G318" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N318" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T318" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U318" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V318" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:22">
+      <x:c r="A319" s="0" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B319" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G319" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="H318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N318" s="0" t="s">
+      <x:c r="H319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N319" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="O318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T318" s="0" t="s">
+      <x:c r="O319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T319" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="U318" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V318" s="0" t="s">
+      <x:c r="U319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V319" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -841,931 +841,931 @@
     <x:t>Brooklyn Park Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bovey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nashwauk Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0350000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0370000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac Qui Parle County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cleveland Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0410000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winsted Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0450000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburn Welcome Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Onamia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royalton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rochester Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fergus Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perham Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York Mills Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thief River Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0580000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0590000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crookston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Grand Forks Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glenwood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maplewood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mounds View Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Brighton Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0621000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Bear Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0630000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hector Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Buffalo Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dundas Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lonsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0670000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Warroad Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Babbitt Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisholm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duluth Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bovey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nashwauk Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0350000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0370000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac Qui Parle County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cleveland Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0410000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winsted Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0450000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburn Welcome Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Onamia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Royalton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rochester Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fergus Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perham Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Mills Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thief River Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0580000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0590000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crookston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Grand Forks Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glenwood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maplewood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mounds View Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Brighton Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0621000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Bear Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0630000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hector Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Buffalo Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Northfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dundas Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lonsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0670000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Warroad Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Babbitt Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisholm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duluth Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>115</x:t>
@@ -8703,7 +8703,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>25</x:v>
@@ -8712,7 +8712,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>25</x:v>
@@ -8739,7 +8739,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>25</x:v>
@@ -8757,15 +8757,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
         <x:v>276</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>277</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>32</x:v>
@@ -8830,10 +8830,10 @@
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
         <x:v>278</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>279</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8898,10 +8898,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>281</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8916,7 +8916,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>25</x:v>
@@ -8961,15 +8961,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
         <x:v>284</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>285</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>25</x:v>
@@ -9034,10 +9034,10 @@
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
         <x:v>286</x:v>
-      </x:c>
-      <x:c r="B93" s="0" t="s">
-        <x:v>287</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>32</x:v>
@@ -9102,10 +9102,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>288</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>289</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>24</x:v>
@@ -9165,18 +9165,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
-      <x:c r="B95" s="0" t="s">
+      <x:c r="C95" s="0" t="s">
         <x:v>292</x:v>
-      </x:c>
-      <x:c r="C95" s="0" t="s">
-        <x:v>293</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>29</x:v>
@@ -9188,7 +9188,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>32</x:v>
@@ -9197,7 +9197,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="K95" s="0" t="s">
         <x:v>24</x:v>
@@ -9209,7 +9209,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N95" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="O95" s="0" t="s">
         <x:v>25</x:v>
@@ -9227,21 +9227,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T95" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="U95" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="V95" s="0" t="s">
         <x:v>296</x:v>
-      </x:c>
-      <x:c r="V95" s="0" t="s">
-        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
         <x:v>298</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>299</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -9306,10 +9306,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
         <x:v>300</x:v>
-      </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>301</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -9369,15 +9369,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
         <x:v>303</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>304</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9442,10 +9442,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
         <x:v>305</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>306</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9510,10 +9510,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
         <x:v>307</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>308</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9573,15 +9573,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
         <x:v>310</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>311</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>46</x:v>
@@ -9641,15 +9641,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V101" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
         <x:v>313</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>314</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>46</x:v>
@@ -9709,15 +9709,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
         <x:v>315</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>316</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9782,10 +9782,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
         <x:v>317</x:v>
-      </x:c>
-      <x:c r="B104" s="0" t="s">
-        <x:v>318</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>72</x:v>
@@ -9850,10 +9850,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
         <x:v>319</x:v>
-      </x:c>
-      <x:c r="B105" s="0" t="s">
-        <x:v>320</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9918,10 +9918,10 @@
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
         <x:v>321</x:v>
-      </x:c>
-      <x:c r="B106" s="0" t="s">
-        <x:v>322</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9986,10 +9986,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
         <x:v>323</x:v>
-      </x:c>
-      <x:c r="B107" s="0" t="s">
-        <x:v>324</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>24</x:v>
@@ -10004,7 +10004,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
         <x:v>25</x:v>
@@ -10054,10 +10054,10 @@
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
         <x:v>326</x:v>
-      </x:c>
-      <x:c r="B108" s="0" t="s">
-        <x:v>327</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -10072,7 +10072,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="H108" s="0" t="s">
         <x:v>25</x:v>
@@ -10117,15 +10117,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V108" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="B109" s="0" t="s">
-        <x:v>331</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10140,7 +10140,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>24</x:v>
@@ -10185,15 +10185,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
         <x:v>334</x:v>
-      </x:c>
-      <x:c r="B110" s="0" t="s">
-        <x:v>335</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10258,10 +10258,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
         <x:v>336</x:v>
-      </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>337</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10326,10 +10326,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="B112" s="0" t="s">
-        <x:v>339</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10394,10 +10394,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
         <x:v>340</x:v>
-      </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>341</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10462,10 +10462,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>343</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10530,10 +10530,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>344</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>345</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10598,10 +10598,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>346</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>347</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10666,10 +10666,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>348</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>349</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10734,10 +10734,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>350</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>351</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>98</x:v>
@@ -10773,7 +10773,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>27</x:v>
@@ -10797,15 +10797,15 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>354</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>355</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10870,10 +10870,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>356</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>357</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10938,10 +10938,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>358</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>359</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10956,7 +10956,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10977,39 +10977,39 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="O121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V121" s="0" t="s">
         <x:v>361</x:v>
-      </x:c>
-      <x:c r="O121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V121" s="0" t="s">
-        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>363</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>364</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11074,10 +11074,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>365</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>366</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11137,15 +11137,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>368</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>369</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11210,10 +11210,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>370</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>371</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11278,10 +11278,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>372</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>373</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11346,10 +11346,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>374</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>375</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11414,10 +11414,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>376</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>377</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11482,10 +11482,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>378</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>379</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11550,10 +11550,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>380</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>381</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11618,10 +11618,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>382</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>383</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11686,10 +11686,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>384</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>385</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11754,10 +11754,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>386</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>387</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11822,10 +11822,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>388</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>389</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11885,15 +11885,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>391</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>392</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11908,7 +11908,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11929,7 +11929,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
@@ -11953,15 +11953,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>395</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>396</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -12026,10 +12026,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>397</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>398</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -12094,10 +12094,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>399</x:v>
-      </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>400</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -12157,15 +12157,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>401</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>402</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12230,10 +12230,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>403</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>404</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12298,10 +12298,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>405</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>406</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12366,10 +12366,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>407</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>408</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12434,10 +12434,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>409</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>410</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12502,10 +12502,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>411</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>412</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12570,10 +12570,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>413</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>414</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12638,10 +12638,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>415</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>416</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12706,10 +12706,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>417</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>418</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12774,10 +12774,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>419</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>420</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12842,10 +12842,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>421</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>422</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12910,10 +12910,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>423</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>424</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12978,10 +12978,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>425</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>426</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -13046,10 +13046,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>427</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>428</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13114,10 +13114,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>429</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>430</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13182,10 +13182,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>431</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>432</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13245,15 +13245,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>433</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>434</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13318,10 +13318,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>435</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>436</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13386,10 +13386,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>437</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>438</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13425,7 +13425,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>25</x:v>
@@ -13454,10 +13454,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>439</x:v>
-      </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>440</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13522,10 +13522,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>441</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>442</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13590,10 +13590,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>443</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>444</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13653,15 +13653,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>445</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>446</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13703,7 +13703,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13721,15 +13721,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>448</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>449</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13794,10 +13794,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>450</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>451</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13862,10 +13862,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>452</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>453</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13930,10 +13930,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>454</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>455</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13998,10 +13998,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>456</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>457</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14066,10 +14066,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>458</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>459</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14134,10 +14134,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>460</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>461</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14202,10 +14202,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>462</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>463</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14270,10 +14270,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>464</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>465</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14338,10 +14338,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
         <x:v>466</x:v>
-      </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>467</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14406,10 +14406,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>468</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>469</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14474,10 +14474,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>470</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>471</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14542,10 +14542,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>472</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>473</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14610,10 +14610,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
         <x:v>474</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>475</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14678,10 +14678,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
         <x:v>476</x:v>
-      </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>477</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14746,10 +14746,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
         <x:v>478</x:v>
-      </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>479</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14785,7 +14785,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14809,15 +14809,15 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
         <x:v>482</x:v>
-      </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>483</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14882,10 +14882,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
         <x:v>484</x:v>
-      </x:c>
-      <x:c r="B179" s="0" t="s">
-        <x:v>485</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14945,15 +14945,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>487</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>488</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
@@ -14968,7 +14968,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14995,7 +14995,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15013,15 +15013,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>490</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>492</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>493</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15086,10 +15086,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>494</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>495</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15154,10 +15154,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>496</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>497</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15222,10 +15222,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>498</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>499</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15290,10 +15290,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>500</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>501</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15358,10 +15358,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>502</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>503</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15426,10 +15426,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>504</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>505</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15465,7 +15465,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N187" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="O187" s="0" t="s">
         <x:v>25</x:v>
@@ -15489,15 +15489,15 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>508</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>509</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15562,10 +15562,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>510</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>511</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15625,15 +15625,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>513</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>514</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15669,7 +15669,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N190" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="O190" s="0" t="s">
         <x:v>24</x:v>
@@ -15698,10 +15698,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15716,7 +15716,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -15761,15 +15761,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>518</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>519</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15834,10 +15834,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>520</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>521</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15902,10 +15902,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>522</x:v>
-      </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>523</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>32</x:v>
@@ -15965,15 +15965,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>525</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>526</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>24</x:v>
@@ -16009,7 +16009,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N195" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="O195" s="0" t="s">
         <x:v>25</x:v>
@@ -16033,15 +16033,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>528</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>529</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -16106,10 +16106,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>530</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>531</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>27</x:v>
@@ -16169,15 +16169,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V197" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>532</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>533</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16242,10 +16242,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>534</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>535</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>24</x:v>
@@ -16305,15 +16305,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>537</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>538</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>123</x:v>
@@ -16325,7 +16325,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="G200" s="0" t="s">
         <x:v>246</x:v>
@@ -16355,7 +16355,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P200" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="s">
         <x:v>27</x:v>
@@ -16373,15 +16373,15 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>540</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>541</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16446,10 +16446,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>542</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>543</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16514,10 +16514,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>544</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>545</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16577,15 +16577,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V203" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>547</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>548</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16650,10 +16650,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>549</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>550</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16718,10 +16718,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>551</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>552</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16786,10 +16786,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>553</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>554</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16854,10 +16854,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>555</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>556</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16922,10 +16922,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>557</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>558</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>25</x:v>
@@ -16985,15 +16985,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>559</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>560</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -17058,10 +17058,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>561</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>562</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -17121,15 +17121,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>563</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>564</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17194,10 +17194,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>565</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>566</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17262,10 +17262,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>567</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>568</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17330,10 +17330,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>569</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>570</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17398,10 +17398,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>571</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>572</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17466,10 +17466,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>573</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>574</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17534,10 +17534,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>575</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>576</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17597,15 +17597,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>578</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>579</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17670,10 +17670,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>580</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>581</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17738,10 +17738,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>582</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>583</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17777,7 +17777,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>25</x:v>
@@ -18640,7 +18640,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18797,7 +18797,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N236" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="O236" s="0" t="s">
         <x:v>32</x:v>
@@ -18939,7 +18939,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -19048,7 +19048,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G240" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="H240" s="0" t="s">
         <x:v>25</x:v>
@@ -19161,7 +19161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -19388,7 +19388,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G245" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="H245" s="0" t="s">
         <x:v>25</x:v>
@@ -19501,7 +19501,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19681,7 +19681,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>55</x:v>
@@ -19841,7 +19841,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -21768,7 +21768,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G280" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H280" s="0" t="s">
         <x:v>25</x:v>
@@ -23031,7 +23031,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T298" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="U298" s="0" t="s">
         <x:v>189</x:v>
@@ -23105,7 +23105,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V299" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:22">
@@ -23421,7 +23421,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N304" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="O304" s="0" t="s">
         <x:v>25</x:v>
@@ -23853,7 +23853,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
@@ -23944,7 +23944,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G312" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="H312" s="0" t="s">
         <x:v>25</x:v>
@@ -24125,7 +24125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V314" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:22">
@@ -24284,7 +24284,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G317" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H317" s="0" t="s">
         <x:v>25</x:v>
@@ -24329,7 +24329,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V317" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -160,6 +160,9 @@
     <x:t>16</x:t>
   </x:si>
   <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0020200</x:t>
   </x:si>
   <x:si>
@@ -290,9 +293,6 @@
   </x:si>
   <x:si>
     <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
@@ -3136,7 +3136,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>25</x:v>
@@ -3181,15 +3181,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>25</x:v>
@@ -3204,7 +3204,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
         <x:v>25</x:v>
@@ -3225,7 +3225,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
         <x:v>25</x:v>
@@ -3249,15 +3249,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
       <x:c r="A8" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>24</x:v>
@@ -3272,7 +3272,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
         <x:v>25</x:v>
@@ -3317,15 +3317,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V8" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:22">
       <x:c r="A9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>32</x:v>
@@ -3340,7 +3340,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
         <x:v>25</x:v>
@@ -3385,15 +3385,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V9" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:22">
       <x:c r="A10" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>25</x:v>
@@ -3408,7 +3408,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
         <x:v>24</x:v>
@@ -3417,7 +3417,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
         <x:v>25</x:v>
@@ -3429,7 +3429,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
         <x:v>25</x:v>
@@ -3447,21 +3447,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U10" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="V10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22">
       <x:c r="A11" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>24</x:v>
@@ -3473,10 +3473,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>25</x:v>
@@ -3526,10 +3526,10 @@
     </x:row>
     <x:row r="12" spans="1:22">
       <x:c r="A12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>24</x:v>
@@ -3544,7 +3544,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
         <x:v>25</x:v>
@@ -3594,10 +3594,10 @@
     </x:row>
     <x:row r="13" spans="1:22">
       <x:c r="A13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>25</x:v>
@@ -3657,15 +3657,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:22">
       <x:c r="A14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>25</x:v>
@@ -3701,7 +3701,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O14" s="0" t="s">
         <x:v>25</x:v>
@@ -3725,15 +3725,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V14" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:22">
       <x:c r="A15" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>24</x:v>
@@ -3748,7 +3748,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
         <x:v>25</x:v>
@@ -3775,7 +3775,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P15" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="Q15" s="0" t="s">
         <x:v>25</x:v>
@@ -3787,21 +3787,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U15" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V15" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22">
       <x:c r="A16" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>24</x:v>
@@ -3813,10 +3813,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
         <x:v>25</x:v>
@@ -3837,7 +3837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
         <x:v>32</x:v>
@@ -3861,15 +3861,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V16" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:22">
       <x:c r="A17" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>25</x:v>
@@ -3934,10 +3934,10 @@
     </x:row>
     <x:row r="18" spans="1:22">
       <x:c r="A18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>25</x:v>
@@ -3961,7 +3961,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
         <x:v>25</x:v>
@@ -3973,7 +3973,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
         <x:v>25</x:v>
@@ -3997,15 +3997,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V18" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:22">
       <x:c r="A19" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>25</x:v>
@@ -4017,10 +4017,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
         <x:v>25</x:v>
@@ -4029,7 +4029,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
         <x:v>25</x:v>
@@ -4224,7 +4224,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
         <x:v>25</x:v>
@@ -4269,7 +4269,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V22" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:22">
@@ -4677,7 +4677,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V28" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:22">
@@ -4742,10 +4742,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="U29" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
@@ -4789,7 +4789,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O30" s="0" t="s">
         <x:v>25</x:v>
@@ -4863,7 +4863,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P31" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="Q31" s="0" t="s">
         <x:v>25</x:v>
@@ -4875,7 +4875,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T31" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U31" s="0" t="s">
         <x:v>24</x:v>
@@ -4904,7 +4904,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
         <x:v>25</x:v>
@@ -4925,7 +4925,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
         <x:v>35</x:v>
@@ -5203,7 +5203,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P36" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
         <x:v>32</x:v>
@@ -5244,7 +5244,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
         <x:v>25</x:v>
@@ -5516,7 +5516,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
         <x:v>25</x:v>
@@ -5575,7 +5575,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>154</x:v>
@@ -5605,7 +5605,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
         <x:v>155</x:v>
@@ -5765,7 +5765,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V44" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:22">
@@ -6013,7 +6013,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -6099,7 +6099,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U49" s="0" t="s">
         <x:v>41</x:v>
@@ -6264,7 +6264,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
         <x:v>25</x:v>
@@ -6421,7 +6421,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
         <x:v>25</x:v>
@@ -6563,7 +6563,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="s">
         <x:v>25</x:v>
@@ -6604,7 +6604,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
         <x:v>25</x:v>
@@ -6613,7 +6613,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K57" s="0" t="s">
         <x:v>25</x:v>
@@ -6631,7 +6631,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P57" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="s">
         <x:v>25</x:v>
@@ -6808,7 +6808,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
         <x:v>25</x:v>
@@ -6876,7 +6876,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
         <x:v>25</x:v>
@@ -6971,7 +6971,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P62" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="s">
         <x:v>25</x:v>
@@ -7080,7 +7080,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
         <x:v>25</x:v>
@@ -7101,7 +7101,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
         <x:v>24</x:v>
@@ -7125,7 +7125,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
@@ -7148,7 +7148,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
         <x:v>25</x:v>
@@ -7193,7 +7193,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V65" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -7243,7 +7243,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q66" s="0" t="s">
         <x:v>25</x:v>
@@ -7284,7 +7284,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
         <x:v>25</x:v>
@@ -7533,7 +7533,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
@@ -7556,7 +7556,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
         <x:v>25</x:v>
@@ -8091,7 +8091,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>25</x:v>
@@ -8109,7 +8109,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K79" s="0" t="s">
         <x:v>25</x:v>
@@ -8139,7 +8139,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U79" s="0" t="s">
         <x:v>25</x:v>
@@ -8295,7 +8295,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>25</x:v>
@@ -8461,7 +8461,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>24</x:v>
@@ -8615,7 +8615,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T86" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U86" s="0" t="s">
         <x:v>267</x:v>
@@ -8703,7 +8703,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>25</x:v>
@@ -8825,7 +8825,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
@@ -8937,7 +8937,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N91" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O91" s="0" t="s">
         <x:v>25</x:v>
@@ -8984,7 +8984,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>25</x:v>
@@ -9029,7 +9029,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
@@ -9194,7 +9194,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
         <x:v>294</x:v>
@@ -9333,7 +9333,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K97" s="0" t="s">
         <x:v>25</x:v>
@@ -9392,7 +9392,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H98" s="0" t="s">
         <x:v>25</x:v>
@@ -9413,13 +9413,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N98" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O98" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P98" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="Q98" s="0" t="s">
         <x:v>25</x:v>
@@ -9519,13 +9519,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
         <x:v>141</x:v>
@@ -9555,7 +9555,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P100" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q100" s="0" t="s">
         <x:v>24</x:v>
@@ -9567,7 +9567,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T100" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U100" s="0" t="s">
         <x:v>32</x:v>
@@ -9596,7 +9596,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
         <x:v>25</x:v>
@@ -9664,7 +9664,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H102" s="0" t="s">
         <x:v>25</x:v>
@@ -9703,7 +9703,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="T102" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U102" s="0" t="s">
         <x:v>32</x:v>
@@ -9788,7 +9788,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
         <x:v>41</x:v>
@@ -9800,7 +9800,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H104" s="0" t="s">
         <x:v>25</x:v>
@@ -9809,7 +9809,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J104" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K104" s="0" t="s">
         <x:v>25</x:v>
@@ -9827,7 +9827,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="P104" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q104" s="0" t="s">
         <x:v>41</x:v>
@@ -9839,7 +9839,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T104" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U104" s="0" t="s">
         <x:v>27</x:v>
@@ -9868,7 +9868,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
         <x:v>25</x:v>
@@ -9913,7 +9913,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
@@ -9981,7 +9981,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V106" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
@@ -10013,7 +10013,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J107" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K107" s="0" t="s">
         <x:v>24</x:v>
@@ -10049,7 +10049,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
@@ -10182,7 +10182,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U109" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
         <x:v>332</x:v>
@@ -10276,7 +10276,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G111" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H111" s="0" t="s">
         <x:v>24</x:v>
@@ -10297,7 +10297,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N111" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O111" s="0" t="s">
         <x:v>25</x:v>
@@ -10525,7 +10525,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -10593,7 +10593,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V115" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
@@ -10684,7 +10684,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G117" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H117" s="0" t="s">
         <x:v>25</x:v>
@@ -10743,7 +10743,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>25</x:v>
@@ -10752,13 +10752,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G118" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H118" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J118" s="0" t="s">
         <x:v>254</x:v>
@@ -10791,7 +10791,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T118" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="U118" s="0" t="s">
         <x:v>123</x:v>
@@ -10888,7 +10888,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G120" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H120" s="0" t="s">
         <x:v>25</x:v>
@@ -11024,7 +11024,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G122" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H122" s="0" t="s">
         <x:v>25</x:v>
@@ -11187,7 +11187,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P124" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="s">
         <x:v>25</x:v>
@@ -11205,7 +11205,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V124" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -11249,7 +11249,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N125" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O125" s="0" t="s">
         <x:v>25</x:v>
@@ -11296,7 +11296,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G126" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H126" s="0" t="s">
         <x:v>25</x:v>
@@ -11317,7 +11317,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N126" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O126" s="0" t="s">
         <x:v>28</x:v>
@@ -11335,13 +11335,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T126" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U126" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="V126" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -11432,7 +11432,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G128" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H128" s="0" t="s">
         <x:v>25</x:v>
@@ -11704,7 +11704,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H132" s="0" t="s">
         <x:v>25</x:v>
@@ -11840,7 +11840,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G134" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H134" s="0" t="s">
         <x:v>25</x:v>
@@ -11914,19 +11914,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I135" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J135" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="K135" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L135" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="M135" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
         <x:v>351</x:v>
@@ -12361,7 +12361,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V141" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -12656,7 +12656,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G146" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H146" s="0" t="s">
         <x:v>25</x:v>
@@ -12701,7 +12701,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V146" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
@@ -12813,7 +12813,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N148" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O148" s="0" t="s">
         <x:v>25</x:v>
@@ -12881,7 +12881,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N149" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O149" s="0" t="s">
         <x:v>25</x:v>
@@ -12928,7 +12928,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G150" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H150" s="0" t="s">
         <x:v>25</x:v>
@@ -13017,13 +13017,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N151" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O151" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P151" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="Q151" s="0" t="s">
         <x:v>25</x:v>
@@ -13197,7 +13197,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F154" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G154" s="0" t="s">
         <x:v>28</x:v>
@@ -13336,7 +13336,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G156" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H156" s="0" t="s">
         <x:v>25</x:v>
@@ -13381,7 +13381,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V156" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:22">
@@ -13443,7 +13443,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T157" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U157" s="0" t="s">
         <x:v>25</x:v>
@@ -13585,7 +13585,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -13676,7 +13676,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G161" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H161" s="0" t="s">
         <x:v>25</x:v>
@@ -13771,7 +13771,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P162" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="Q162" s="0" t="s">
         <x:v>25</x:v>
@@ -13812,7 +13812,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G163" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H163" s="0" t="s">
         <x:v>25</x:v>
@@ -13839,7 +13839,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P163" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q163" s="0" t="s">
         <x:v>24</x:v>
@@ -13857,7 +13857,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V163" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
@@ -13925,7 +13925,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V164" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -14025,7 +14025,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J166" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K166" s="0" t="s">
         <x:v>25</x:v>
@@ -14129,7 +14129,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V167" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
@@ -14309,7 +14309,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N170" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O170" s="0" t="s">
         <x:v>25</x:v>
@@ -14333,7 +14333,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V170" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -14401,7 +14401,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V171" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -14741,7 +14741,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V176" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:22">
@@ -14755,7 +14755,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>25</x:v>
@@ -14803,7 +14803,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T177" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U177" s="0" t="s">
         <x:v>97</x:v>
@@ -14891,7 +14891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>25</x:v>
@@ -14959,13 +14959,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F180" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
         <x:v>488</x:v>
@@ -14986,7 +14986,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M180" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N180" s="0" t="s">
         <x:v>97</x:v>
@@ -15004,7 +15004,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S180" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="T180" s="0" t="s">
         <x:v>46</x:v>
@@ -15104,7 +15104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G182" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H182" s="0" t="s">
         <x:v>25</x:v>
@@ -15113,7 +15113,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J182" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K182" s="0" t="s">
         <x:v>24</x:v>
@@ -15125,7 +15125,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N182" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O182" s="0" t="s">
         <x:v>25</x:v>
@@ -15149,7 +15149,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
@@ -15353,7 +15353,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V185" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -15471,7 +15471,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P187" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q187" s="0" t="s">
         <x:v>25</x:v>
@@ -15486,7 +15486,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U187" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
         <x:v>506</x:v>
@@ -15512,7 +15512,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G188" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H188" s="0" t="s">
         <x:v>25</x:v>
@@ -15601,7 +15601,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N189" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O189" s="0" t="s">
         <x:v>25</x:v>
@@ -15941,7 +15941,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N194" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O194" s="0" t="s">
         <x:v>25</x:v>
@@ -16101,7 +16101,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -16115,7 +16115,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
         <x:v>25</x:v>
@@ -16213,7 +16213,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N198" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O198" s="0" t="s">
         <x:v>25</x:v>
@@ -16260,7 +16260,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G199" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H199" s="0" t="s">
         <x:v>25</x:v>
@@ -16346,7 +16346,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M200" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N200" s="0" t="s">
         <x:v>36</x:v>
@@ -16364,10 +16364,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S200" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="T200" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="U200" s="0" t="s">
         <x:v>208</x:v>
@@ -16417,7 +16417,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N201" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O201" s="0" t="s">
         <x:v>25</x:v>
@@ -16600,7 +16600,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G204" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H204" s="0" t="s">
         <x:v>25</x:v>
@@ -16713,7 +16713,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V205" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -17017,7 +17017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J210" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K210" s="0" t="s">
         <x:v>25</x:v>
@@ -17076,7 +17076,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G211" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H211" s="0" t="s">
         <x:v>25</x:v>
@@ -17115,7 +17115,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T211" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U211" s="0" t="s">
         <x:v>24</x:v>
@@ -17561,7 +17561,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J218" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K218" s="0" t="s">
         <x:v>25</x:v>
@@ -17573,13 +17573,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N218" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O218" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P218" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Q218" s="0" t="s">
         <x:v>25</x:v>
@@ -17591,7 +17591,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T218" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U218" s="0" t="s">
         <x:v>27</x:v>
@@ -17733,7 +17733,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V220" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
@@ -17795,7 +17795,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T221" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U221" s="0" t="s">
         <x:v>24</x:v>
@@ -18073,7 +18073,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
@@ -18253,7 +18253,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N228" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O228" s="0" t="s">
         <x:v>25</x:v>
@@ -18345,7 +18345,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V229" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:22">
@@ -18436,7 +18436,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G231" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H231" s="0" t="s">
         <x:v>25</x:v>
@@ -18637,7 +18637,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F234" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
         <x:v>446</x:v>
@@ -18679,7 +18679,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T234" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U234" s="0" t="s">
         <x:v>27</x:v>
@@ -18717,7 +18717,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J235" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K235" s="0" t="s">
         <x:v>25</x:v>
@@ -18767,7 +18767,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>24</x:v>
@@ -18776,16 +18776,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G236" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H236" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I236" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J236" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K236" s="0" t="s">
         <x:v>25</x:v>
@@ -18954,7 +18954,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="U238" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
         <x:v>622</x:v>
@@ -18980,7 +18980,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G239" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H239" s="0" t="s">
         <x:v>25</x:v>
@@ -19075,7 +19075,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P240" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="Q240" s="0" t="s">
         <x:v>25</x:v>
@@ -19297,7 +19297,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V243" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
@@ -19592,7 +19592,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G248" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H248" s="0" t="s">
         <x:v>25</x:v>
@@ -19637,7 +19637,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -19684,7 +19684,7 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P249" s="0" t="s">
         <x:v>647</x:v>
@@ -19909,7 +19909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V252" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">
@@ -20225,10 +20225,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N257" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O257" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="P257" s="0" t="s">
         <x:v>32</x:v>
@@ -20249,7 +20249,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V257" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:22">
@@ -20385,7 +20385,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
@@ -20861,7 +20861,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V266" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:22">
@@ -21269,7 +21269,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V272" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:22">
@@ -21496,7 +21496,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G276" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H276" s="0" t="s">
         <x:v>25</x:v>
@@ -21541,7 +21541,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V276" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:22">
@@ -21700,7 +21700,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G279" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H279" s="0" t="s">
         <x:v>25</x:v>
@@ -21777,7 +21777,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J280" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K280" s="0" t="s">
         <x:v>24</x:v>
@@ -21792,7 +21792,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="O280" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="P280" s="0" t="s">
         <x:v>208</x:v>
@@ -21807,7 +21807,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T280" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U280" s="0" t="s">
         <x:v>35</x:v>
@@ -21949,7 +21949,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V282" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:22">
@@ -22017,7 +22017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V283" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:22">
@@ -22061,7 +22061,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N284" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O284" s="0" t="s">
         <x:v>25</x:v>
@@ -22203,7 +22203,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P286" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="Q286" s="0" t="s">
         <x:v>25</x:v>
@@ -22235,13 +22235,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D287" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E287" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F287" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G287" s="0" t="s">
         <x:v>131</x:v>
@@ -22286,7 +22286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U287" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="V287" s="0" t="s">
         <x:v>726</x:v>
@@ -22516,7 +22516,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G291" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H291" s="0" t="s">
         <x:v>25</x:v>
@@ -22584,7 +22584,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G292" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H292" s="0" t="s">
         <x:v>25</x:v>
@@ -22629,7 +22629,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
@@ -22652,7 +22652,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G293" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H293" s="0" t="s">
         <x:v>25</x:v>
@@ -22983,7 +22983,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D298" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E298" s="0" t="s">
         <x:v>24</x:v>
@@ -23241,7 +23241,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V301" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:22">
@@ -23397,7 +23397,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F304" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G304" s="0" t="s">
         <x:v>32</x:v>
@@ -23439,10 +23439,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="T304" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U304" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="V304" s="0" t="s">
         <x:v>766</x:v>
@@ -23533,7 +23533,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F306" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G306" s="0" t="s">
         <x:v>47</x:v>
@@ -23557,7 +23557,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N306" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O306" s="0" t="s">
         <x:v>25</x:v>
@@ -23575,7 +23575,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T306" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U306" s="0" t="s">
         <x:v>27</x:v>
@@ -23740,7 +23740,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G309" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H309" s="0" t="s">
         <x:v>25</x:v>
@@ -23799,7 +23799,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D310" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E310" s="0" t="s">
         <x:v>25</x:v>
@@ -23897,7 +23897,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N311" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O311" s="0" t="s">
         <x:v>25</x:v>
@@ -23989,7 +23989,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V312" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:22">
@@ -24080,7 +24080,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G314" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H314" s="0" t="s">
         <x:v>25</x:v>
@@ -24119,7 +24119,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T314" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U314" s="0" t="s">
         <x:v>25</x:v>
@@ -24255,7 +24255,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T316" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="U316" s="0" t="s">
         <x:v>25</x:v>
@@ -24352,7 +24352,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G318" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H318" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -998,9 +998,6 @@
   </x:si>
   <x:si>
     <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
   </x:si>
   <x:si>
     <x:t>MN0272700</x:t>
@@ -10063,7 +10060,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>25</x:v>
@@ -10081,7 +10078,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J108" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K108" s="0" t="s">
         <x:v>25</x:v>
@@ -10099,7 +10096,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P108" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q108" s="0" t="s">
         <x:v>25</x:v>
@@ -10117,15 +10114,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V108" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
         <x:v>329</x:v>
-      </x:c>
-      <x:c r="B109" s="0" t="s">
-        <x:v>330</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10140,7 +10137,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>24</x:v>
@@ -10185,15 +10182,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
         <x:v>333</x:v>
-      </x:c>
-      <x:c r="B110" s="0" t="s">
-        <x:v>334</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10258,10 +10255,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
         <x:v>335</x:v>
-      </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>336</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10326,10 +10323,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
         <x:v>337</x:v>
-      </x:c>
-      <x:c r="B112" s="0" t="s">
-        <x:v>338</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10394,10 +10391,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
         <x:v>339</x:v>
-      </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>340</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10462,10 +10459,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
         <x:v>341</x:v>
-      </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>342</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10530,10 +10527,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>343</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>344</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10598,10 +10595,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>345</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>346</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10666,10 +10663,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>347</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>348</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10734,10 +10731,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>349</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>350</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>98</x:v>
@@ -10773,7 +10770,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>27</x:v>
@@ -10797,15 +10794,15 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>353</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>354</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10870,10 +10867,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>355</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>356</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10938,10 +10935,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>357</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10956,7 +10953,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10977,39 +10974,39 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="O121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V121" s="0" t="s">
         <x:v>360</x:v>
-      </x:c>
-      <x:c r="O121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V121" s="0" t="s">
-        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>362</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>363</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11074,10 +11071,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>364</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>365</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11137,15 +11134,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>367</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>368</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11210,10 +11207,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>369</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>370</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11278,10 +11275,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>371</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>372</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11346,10 +11343,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>373</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>374</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11414,10 +11411,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>375</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>376</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11482,10 +11479,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>377</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>378</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11550,10 +11547,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>379</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>380</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11618,10 +11615,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>382</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11686,10 +11683,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>383</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>384</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11754,10 +11751,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>385</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>386</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11822,10 +11819,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>387</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>388</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11885,15 +11882,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>390</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>391</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11908,7 +11905,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11929,7 +11926,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
@@ -11953,15 +11950,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>394</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>395</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -12026,10 +12023,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>396</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>397</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -12094,10 +12091,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>398</x:v>
-      </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>399</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -12157,15 +12154,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>400</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>401</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12230,10 +12227,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12298,10 +12295,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>404</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>405</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12366,10 +12363,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>406</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>407</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12434,10 +12431,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>409</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12502,10 +12499,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>410</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>411</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12570,10 +12567,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>412</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>413</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12638,10 +12635,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>414</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>415</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12706,10 +12703,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>416</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>417</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12774,10 +12771,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>418</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>419</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12842,10 +12839,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>420</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>421</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12910,10 +12907,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>422</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>423</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12978,10 +12975,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>424</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>425</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -13046,10 +13043,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>426</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>427</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13114,10 +13111,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>428</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>429</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13182,10 +13179,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>430</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>431</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13245,15 +13242,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>432</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>433</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13318,10 +13315,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>434</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>435</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13386,10 +13383,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>436</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13454,10 +13451,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>438</x:v>
-      </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>439</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13522,10 +13519,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>440</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>441</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13590,10 +13587,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>442</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>443</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13658,10 +13655,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>444</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>445</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13703,7 +13700,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13726,10 +13723,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>447</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>448</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13794,10 +13791,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>449</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>450</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13862,10 +13859,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>451</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>452</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13930,10 +13927,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>454</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13998,10 +13995,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>455</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>456</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14066,10 +14063,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>457</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>458</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14134,10 +14131,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>459</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>460</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14202,10 +14199,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>461</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>462</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14270,10 +14267,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>463</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>464</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14338,10 +14335,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
         <x:v>465</x:v>
-      </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>466</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14406,10 +14403,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>467</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>468</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14474,10 +14471,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>469</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>470</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14542,10 +14539,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>471</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>472</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14610,10 +14607,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
         <x:v>473</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>474</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14678,10 +14675,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
         <x:v>475</x:v>
-      </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>476</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14746,10 +14743,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
         <x:v>477</x:v>
-      </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>478</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14785,7 +14782,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14809,15 +14806,15 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
         <x:v>481</x:v>
-      </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>482</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14882,10 +14879,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
         <x:v>483</x:v>
-      </x:c>
-      <x:c r="B179" s="0" t="s">
-        <x:v>484</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14945,15 +14942,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>486</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>487</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
@@ -14968,7 +14965,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14995,7 +14992,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15013,15 +15010,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>489</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>491</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>492</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15086,10 +15083,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>493</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>494</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15154,10 +15151,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>495</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>496</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15222,10 +15219,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>497</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>498</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15290,10 +15287,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>499</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>500</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15358,10 +15355,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>501</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>502</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15426,10 +15423,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>503</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>504</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15465,7 +15462,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N187" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="O187" s="0" t="s">
         <x:v>25</x:v>
@@ -15489,15 +15486,15 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15562,10 +15559,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>509</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>510</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15625,15 +15622,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>512</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>513</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15698,10 +15695,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>514</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>515</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15716,7 +15713,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -15761,15 +15758,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>518</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15834,10 +15831,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>519</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15902,10 +15899,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>521</x:v>
-      </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>522</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>32</x:v>
@@ -15965,15 +15962,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>524</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>525</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>24</x:v>
@@ -16033,15 +16030,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>527</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>528</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -16106,10 +16103,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>529</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>530</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>27</x:v>
@@ -16174,10 +16171,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>531</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>532</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16242,10 +16239,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>533</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>534</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>24</x:v>
@@ -16305,15 +16302,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>534</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>536</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>537</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>123</x:v>
@@ -16325,7 +16322,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="G200" s="0" t="s">
         <x:v>246</x:v>
@@ -16373,15 +16370,15 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>539</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>540</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16446,10 +16443,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>541</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>542</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16514,10 +16511,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>543</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>544</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16577,15 +16574,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V203" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>546</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>547</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16650,10 +16647,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>548</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>549</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16718,10 +16715,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>550</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>551</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16786,10 +16783,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>552</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>553</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16854,10 +16851,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>554</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>555</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16922,10 +16919,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>556</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>557</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>25</x:v>
@@ -16990,10 +16987,10 @@
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>558</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>559</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -17058,10 +17055,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>560</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>561</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -17121,15 +17118,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>562</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>563</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17194,10 +17191,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>564</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>565</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17262,10 +17259,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>566</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>567</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17330,10 +17327,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>568</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>569</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17398,10 +17395,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>570</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>571</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17466,10 +17463,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>572</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>573</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17534,10 +17531,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>574</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>575</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17597,15 +17594,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>577</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>578</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17670,10 +17667,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>579</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>580</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17738,10 +17735,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>581</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>582</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17777,7 +17774,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>25</x:v>
@@ -17801,15 +17798,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>585</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>586</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17874,10 +17871,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>587</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>588</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17942,10 +17939,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>589</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>590</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -18010,10 +18007,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>591</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>592</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -18078,10 +18075,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>593</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>594</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -18146,10 +18143,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>595</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>596</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18214,10 +18211,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>597</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>598</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -18282,10 +18279,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>599</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>600</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18350,10 +18347,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>601</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>602</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18418,10 +18415,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>603</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>604</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18486,10 +18483,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>605</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>606</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18554,10 +18551,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>607</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>608</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18622,10 +18619,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>609</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>610</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18640,7 +18637,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18685,15 +18682,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V234" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>612</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>613</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18758,10 +18755,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18797,7 +18794,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N236" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="O236" s="0" t="s">
         <x:v>32</x:v>
@@ -18821,15 +18818,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>615</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>617</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>618</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18894,10 +18891,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>619</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>620</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -18912,7 +18909,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G238" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="H238" s="0" t="s">
         <x:v>25</x:v>
@@ -18939,7 +18936,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -18957,15 +18954,15 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>621</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>623</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>624</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -19030,10 +19027,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>625</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>626</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -19048,7 +19045,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G240" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="H240" s="0" t="s">
         <x:v>25</x:v>
@@ -19093,15 +19090,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V240" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>628</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>629</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -19161,15 +19158,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>630</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>631</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19234,10 +19231,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>632</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>633</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19302,10 +19299,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>634</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>635</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19370,10 +19367,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>636</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>637</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19438,10 +19435,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19501,15 +19498,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>640</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>641</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19574,10 +19571,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>642</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>643</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>25</x:v>
@@ -19642,10 +19639,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>644</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>645</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>27</x:v>
@@ -19660,7 +19657,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G249" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="H249" s="0" t="s">
         <x:v>32</x:v>
@@ -19681,13 +19678,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="P249" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="Q249" s="0" t="s">
         <x:v>41</x:v>
@@ -19705,15 +19702,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V249" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>649</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>650</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19778,10 +19775,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>651</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>652</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19846,10 +19843,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>653</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>654</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19914,10 +19911,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>655</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>656</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19982,10 +19979,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>657</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>658</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -20050,10 +20047,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>659</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>660</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -20118,10 +20115,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>661</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>662</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20186,10 +20183,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>663</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>664</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20254,10 +20251,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>665</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>666</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20322,10 +20319,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>667</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>668</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20390,10 +20387,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>669</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>670</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20458,10 +20455,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>671</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>672</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20526,10 +20523,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20594,10 +20591,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20662,10 +20659,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20725,15 +20722,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>615</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>679</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>680</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20798,10 +20795,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>681</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>682</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20866,10 +20863,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>683</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>684</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20934,10 +20931,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>685</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>686</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -21002,10 +20999,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>687</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>688</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -21070,10 +21067,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>689</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>690</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -21138,10 +21135,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>691</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>692</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21206,10 +21203,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>693</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>694</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21274,10 +21271,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>695</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>696</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21342,10 +21339,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>697</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>698</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21410,10 +21407,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>699</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>700</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21478,10 +21475,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>701</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>702</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21546,10 +21543,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>703</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>704</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21614,10 +21611,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>705</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>706</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21682,10 +21679,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
         <x:v>707</x:v>
-      </x:c>
-      <x:c r="B279" s="0" t="s">
-        <x:v>708</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21750,10 +21747,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="B280" s="0" t="s">
         <x:v>709</x:v>
-      </x:c>
-      <x:c r="B280" s="0" t="s">
-        <x:v>710</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>32</x:v>
@@ -21813,15 +21810,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V280" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="B281" s="0" t="s">
         <x:v>712</x:v>
-      </x:c>
-      <x:c r="B281" s="0" t="s">
-        <x:v>713</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21886,10 +21883,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="B282" s="0" t="s">
         <x:v>714</x:v>
-      </x:c>
-      <x:c r="B282" s="0" t="s">
-        <x:v>715</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21954,10 +21951,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="B283" s="0" t="s">
         <x:v>716</x:v>
-      </x:c>
-      <x:c r="B283" s="0" t="s">
-        <x:v>717</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -22022,10 +22019,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="B284" s="0" t="s">
         <x:v>718</x:v>
-      </x:c>
-      <x:c r="B284" s="0" t="s">
-        <x:v>719</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>25</x:v>
@@ -22090,10 +22087,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="B285" s="0" t="s">
         <x:v>720</x:v>
-      </x:c>
-      <x:c r="B285" s="0" t="s">
-        <x:v>721</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>24</x:v>
@@ -22158,10 +22155,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="B286" s="0" t="s">
         <x:v>722</x:v>
-      </x:c>
-      <x:c r="B286" s="0" t="s">
-        <x:v>723</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22226,10 +22223,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="B287" s="0" t="s">
         <x:v>724</x:v>
-      </x:c>
-      <x:c r="B287" s="0" t="s">
-        <x:v>725</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>32</x:v>
@@ -22289,15 +22286,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="V287" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>727</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>728</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22362,10 +22359,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
         <x:v>729</x:v>
-      </x:c>
-      <x:c r="B289" s="0" t="s">
-        <x:v>730</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22430,10 +22427,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
         <x:v>731</x:v>
-      </x:c>
-      <x:c r="B290" s="0" t="s">
-        <x:v>732</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22498,10 +22495,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>733</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>734</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22566,10 +22563,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
         <x:v>735</x:v>
-      </x:c>
-      <x:c r="B292" s="0" t="s">
-        <x:v>736</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22634,10 +22631,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
         <x:v>737</x:v>
-      </x:c>
-      <x:c r="B293" s="0" t="s">
-        <x:v>738</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22702,10 +22699,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
         <x:v>739</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>740</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22770,10 +22767,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
         <x:v>741</x:v>
-      </x:c>
-      <x:c r="B295" s="0" t="s">
-        <x:v>742</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22838,10 +22835,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
         <x:v>743</x:v>
-      </x:c>
-      <x:c r="B296" s="0" t="s">
-        <x:v>744</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22906,10 +22903,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
         <x:v>745</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>746</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22974,10 +22971,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
         <x:v>747</x:v>
-      </x:c>
-      <x:c r="B298" s="0" t="s">
-        <x:v>748</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>32</x:v>
@@ -22992,7 +22989,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G298" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="H298" s="0" t="s">
         <x:v>25</x:v>
@@ -23013,7 +23010,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="N298" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="O298" s="0" t="s">
         <x:v>24</x:v>
@@ -23037,15 +23034,15 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="V298" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>750</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
         <x:v>752</x:v>
-      </x:c>
-      <x:c r="B299" s="0" t="s">
-        <x:v>753</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -23110,10 +23107,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
         <x:v>754</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>755</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>
@@ -23178,10 +23175,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="B301" s="0" t="s">
         <x:v>756</x:v>
-      </x:c>
-      <x:c r="B301" s="0" t="s">
-        <x:v>757</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>25</x:v>
@@ -23246,10 +23243,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="B302" s="0" t="s">
         <x:v>758</x:v>
-      </x:c>
-      <x:c r="B302" s="0" t="s">
-        <x:v>759</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>25</x:v>
@@ -23314,78 +23311,78 @@
     </x:row>
     <x:row r="303" spans="1:22">
       <x:c r="A303" s="0" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="B303" s="0" t="s">
         <x:v>760</x:v>
       </x:c>
-      <x:c r="B303" s="0" t="s">
+      <x:c r="C303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D303" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G303" s="0" t="s">
         <x:v>761</x:v>
       </x:c>
-      <x:c r="C303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D303" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G303" s="0" t="s">
+      <x:c r="H303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J303" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V303" s="0" t="s">
         <x:v>762</x:v>
-      </x:c>
-      <x:c r="H303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J303" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V303" s="0" t="s">
-        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:22">
       <x:c r="A304" s="0" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="B304" s="0" t="s">
         <x:v>764</x:v>
-      </x:c>
-      <x:c r="B304" s="0" t="s">
-        <x:v>765</x:v>
       </x:c>
       <x:c r="C304" s="0" t="s">
         <x:v>25</x:v>
@@ -23445,15 +23442,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V304" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>765</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:22">
       <x:c r="A305" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="B305" s="0" t="s">
         <x:v>767</x:v>
-      </x:c>
-      <x:c r="B305" s="0" t="s">
-        <x:v>768</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
         <x:v>25</x:v>
@@ -23518,10 +23515,10 @@
     </x:row>
     <x:row r="306" spans="1:22">
       <x:c r="A306" s="0" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="B306" s="0" t="s">
         <x:v>769</x:v>
-      </x:c>
-      <x:c r="B306" s="0" t="s">
-        <x:v>770</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
         <x:v>25</x:v>
@@ -23581,15 +23578,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
       <x:c r="A307" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="B307" s="0" t="s">
         <x:v>771</x:v>
-      </x:c>
-      <x:c r="B307" s="0" t="s">
-        <x:v>772</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
         <x:v>25</x:v>
@@ -23654,10 +23651,10 @@
     </x:row>
     <x:row r="308" spans="1:22">
       <x:c r="A308" s="0" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B308" s="0" t="s">
         <x:v>773</x:v>
-      </x:c>
-      <x:c r="B308" s="0" t="s">
-        <x:v>774</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
         <x:v>25</x:v>
@@ -23722,10 +23719,10 @@
     </x:row>
     <x:row r="309" spans="1:22">
       <x:c r="A309" s="0" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="B309" s="0" t="s">
         <x:v>775</x:v>
-      </x:c>
-      <x:c r="B309" s="0" t="s">
-        <x:v>776</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
         <x:v>25</x:v>
@@ -23790,10 +23787,10 @@
     </x:row>
     <x:row r="310" spans="1:22">
       <x:c r="A310" s="0" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="B310" s="0" t="s">
         <x:v>777</x:v>
-      </x:c>
-      <x:c r="B310" s="0" t="s">
-        <x:v>778</x:v>
       </x:c>
       <x:c r="C310" s="0" t="s">
         <x:v>25</x:v>
@@ -23853,15 +23850,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
       <x:c r="A311" s="0" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="B311" s="0" t="s">
         <x:v>779</x:v>
-      </x:c>
-      <x:c r="B311" s="0" t="s">
-        <x:v>780</x:v>
       </x:c>
       <x:c r="C311" s="0" t="s">
         <x:v>25</x:v>
@@ -23926,10 +23923,10 @@
     </x:row>
     <x:row r="312" spans="1:22">
       <x:c r="A312" s="0" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="B312" s="0" t="s">
         <x:v>781</x:v>
-      </x:c>
-      <x:c r="B312" s="0" t="s">
-        <x:v>782</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
         <x:v>25</x:v>
@@ -23944,7 +23941,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G312" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="H312" s="0" t="s">
         <x:v>25</x:v>
@@ -23994,10 +23991,10 @@
     </x:row>
     <x:row r="313" spans="1:22">
       <x:c r="A313" s="0" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="B313" s="0" t="s">
         <x:v>783</x:v>
-      </x:c>
-      <x:c r="B313" s="0" t="s">
-        <x:v>784</x:v>
       </x:c>
       <x:c r="C313" s="0" t="s">
         <x:v>25</x:v>
@@ -24062,10 +24059,10 @@
     </x:row>
     <x:row r="314" spans="1:22">
       <x:c r="A314" s="0" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="B314" s="0" t="s">
         <x:v>785</x:v>
-      </x:c>
-      <x:c r="B314" s="0" t="s">
-        <x:v>786</x:v>
       </x:c>
       <x:c r="C314" s="0" t="s">
         <x:v>25</x:v>
@@ -24125,15 +24122,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V314" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:22">
       <x:c r="A315" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="B315" s="0" t="s">
         <x:v>787</x:v>
-      </x:c>
-      <x:c r="B315" s="0" t="s">
-        <x:v>788</x:v>
       </x:c>
       <x:c r="C315" s="0" t="s">
         <x:v>25</x:v>
@@ -24198,10 +24195,10 @@
     </x:row>
     <x:row r="316" spans="1:22">
       <x:c r="A316" s="0" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="B316" s="0" t="s">
         <x:v>789</x:v>
-      </x:c>
-      <x:c r="B316" s="0" t="s">
-        <x:v>790</x:v>
       </x:c>
       <x:c r="C316" s="0" t="s">
         <x:v>25</x:v>
@@ -24266,11 +24263,11 @@
     </x:row>
     <x:row r="317" spans="1:22">
       <x:c r="A317" s="0" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="B317" s="0" t="s">
         <x:v>791</x:v>
       </x:c>
-      <x:c r="B317" s="0" t="s">
-        <x:v>792</x:v>
-      </x:c>
       <x:c r="C317" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -24284,7 +24281,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G317" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H317" s="0" t="s">
         <x:v>25</x:v>
@@ -24334,10 +24331,10 @@
     </x:row>
     <x:row r="318" spans="1:22">
       <x:c r="A318" s="0" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="B318" s="0" t="s">
         <x:v>793</x:v>
-      </x:c>
-      <x:c r="B318" s="0" t="s">
-        <x:v>794</x:v>
       </x:c>
       <x:c r="C318" s="0" t="s">
         <x:v>25</x:v>
@@ -24402,10 +24399,10 @@
     </x:row>
     <x:row r="319" spans="1:22">
       <x:c r="A319" s="0" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="B319" s="0" t="s">
         <x:v>795</x:v>
-      </x:c>
-      <x:c r="B319" s="0" t="s">
-        <x:v>796</x:v>
       </x:c>
       <x:c r="C319" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -481,816 +481,819 @@
     <x:t>19</x:t>
   </x:si>
   <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnebago Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chatfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bovey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nashwauk Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0350000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0370000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac Qui Parle County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cleveland Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0410000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>55</x:t>
   </x:si>
   <x:si>
-    <x:t>263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnebago Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chatfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>683</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bovey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nashwauk Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0350000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0370000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac Qui Parle County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cleveland Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0410000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0430400</x:t>
   </x:si>
   <x:si>
@@ -1300,7 +1303,7 @@
     <x:t>MN0430700</x:t>
   </x:si>
   <x:si>
-    <x:t>Winsted Police Dept</x:t>
+    <x:t>Winsted Lester Prairie Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0440000</x:t>
@@ -1526,9 +1529,6 @@
   </x:si>
   <x:si>
     <x:t>Pine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
@@ -13038,15 +13038,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V151" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13111,10 +13111,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13179,10 +13179,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13247,10 +13247,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13315,10 +13315,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13383,10 +13383,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13451,10 +13451,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13519,10 +13519,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13587,10 +13587,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13655,10 +13655,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13700,7 +13700,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13723,10 +13723,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13791,10 +13791,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13859,10 +13859,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13927,10 +13927,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13995,10 +13995,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14063,10 +14063,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14131,10 +14131,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14199,10 +14199,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14267,10 +14267,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14335,10 +14335,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14403,10 +14403,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14471,10 +14471,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14539,10 +14539,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14607,10 +14607,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14675,10 +14675,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14743,10 +14743,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14782,7 +14782,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14806,15 +14806,15 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14879,10 +14879,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14942,15 +14942,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
@@ -14965,7 +14965,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14992,7 +14992,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15010,15 +15010,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15083,10 +15083,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15151,10 +15151,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15219,10 +15219,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15287,10 +15287,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15355,10 +15355,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15423,10 +15423,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15462,7 +15462,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N187" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="O187" s="0" t="s">
         <x:v>25</x:v>
@@ -18637,7 +18637,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18936,7 +18936,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -20677,7 +20677,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G264" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="H264" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2191,7 +2191,7 @@
     <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
-    <x:t>138</x:t>
+    <x:t>137</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -8736,7 +8736,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>25</x:v>
@@ -8754,7 +8754,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
@@ -22268,7 +22268,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P287" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="Q287" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -841,6 +841,9 @@
     <x:t>Brooklyn Park Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0270400</x:t>
   </x:si>
   <x:si>
@@ -2191,7 +2194,7 @@
     <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
-    <x:t>137</x:t>
+    <x:t>135</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -8700,16 +8703,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>25</x:v>
@@ -8751,18 +8754,18 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U88" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>32</x:v>
@@ -8827,10 +8830,10 @@
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8895,10 +8898,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8913,7 +8916,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>25</x:v>
@@ -8958,15 +8961,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>25</x:v>
@@ -9031,10 +9034,10 @@
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>32</x:v>
@@ -9099,10 +9102,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>24</x:v>
@@ -9162,18 +9165,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>29</x:v>
@@ -9185,7 +9188,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>32</x:v>
@@ -9194,7 +9197,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="K95" s="0" t="s">
         <x:v>24</x:v>
@@ -9206,7 +9209,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N95" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="O95" s="0" t="s">
         <x:v>25</x:v>
@@ -9224,21 +9227,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T95" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="U95" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -9303,10 +9306,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
@@ -9366,15 +9369,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9439,10 +9442,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9507,10 +9510,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9570,15 +9573,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>46</x:v>
@@ -9638,15 +9641,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V101" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>46</x:v>
@@ -9706,15 +9709,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9779,10 +9782,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>73</x:v>
@@ -9847,10 +9850,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9915,10 +9918,10 @@
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9983,10 +9986,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>24</x:v>
@@ -10001,7 +10004,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
         <x:v>25</x:v>
@@ -10051,10 +10054,10 @@
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -10069,7 +10072,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="H108" s="0" t="s">
         <x:v>25</x:v>
@@ -10119,10 +10122,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10137,7 +10140,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>24</x:v>
@@ -10182,15 +10185,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10255,10 +10258,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10323,10 +10326,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10391,10 +10394,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10459,10 +10462,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10527,10 +10530,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10595,10 +10598,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10663,10 +10666,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10731,10 +10734,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>98</x:v>
@@ -10770,7 +10773,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>27</x:v>
@@ -10794,15 +10797,15 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10867,10 +10870,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10935,10 +10938,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10953,7 +10956,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10974,7 +10977,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="O121" s="0" t="s">
         <x:v>25</x:v>
@@ -10998,15 +11001,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V121" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11071,10 +11074,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11134,15 +11137,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11207,10 +11210,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11275,10 +11278,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11343,10 +11346,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11411,10 +11414,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11479,10 +11482,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11547,10 +11550,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11615,10 +11618,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11683,10 +11686,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11751,10 +11754,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11819,10 +11822,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11882,15 +11885,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11905,7 +11908,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11926,7 +11929,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
@@ -11950,15 +11953,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -12023,10 +12026,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -12091,10 +12094,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -12154,15 +12157,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12227,10 +12230,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12295,10 +12298,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12363,10 +12366,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12431,10 +12434,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12499,10 +12502,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12567,10 +12570,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12635,10 +12638,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12703,10 +12706,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12771,10 +12774,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12839,10 +12842,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12907,10 +12910,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12975,10 +12978,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -13038,15 +13041,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V151" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13111,10 +13114,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13179,10 +13182,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13242,15 +13245,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13315,10 +13318,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13383,10 +13386,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13422,7 +13425,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>25</x:v>
@@ -13451,10 +13454,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13519,10 +13522,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13587,10 +13590,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13650,15 +13653,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13700,7 +13703,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13718,15 +13721,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13791,10 +13794,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13859,10 +13862,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13927,10 +13930,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13995,10 +13998,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14063,10 +14066,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14131,10 +14134,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14199,10 +14202,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14267,10 +14270,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14335,10 +14338,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14403,10 +14406,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14471,10 +14474,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14539,10 +14542,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14607,10 +14610,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14675,10 +14678,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14743,10 +14746,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14782,7 +14785,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14806,15 +14809,15 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14879,10 +14882,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14942,15 +14945,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
@@ -14965,7 +14968,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14992,7 +14995,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15010,15 +15013,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15083,10 +15086,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15151,10 +15154,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15219,10 +15222,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15287,10 +15290,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15355,10 +15358,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15423,10 +15426,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15486,15 +15489,15 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15559,10 +15562,10 @@
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15622,15 +15625,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15666,7 +15669,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N190" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="O190" s="0" t="s">
         <x:v>24</x:v>
@@ -15695,10 +15698,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15713,7 +15716,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -15758,15 +15761,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15831,10 +15834,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15899,10 +15902,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>32</x:v>
@@ -15962,15 +15965,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>24</x:v>
@@ -16006,7 +16009,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N195" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="O195" s="0" t="s">
         <x:v>25</x:v>
@@ -16030,15 +16033,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -16103,10 +16106,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>27</x:v>
@@ -16166,15 +16169,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V197" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16239,10 +16242,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>24</x:v>
@@ -16302,15 +16305,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>123</x:v>
@@ -16322,7 +16325,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="G200" s="0" t="s">
         <x:v>246</x:v>
@@ -16352,7 +16355,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P200" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="s">
         <x:v>27</x:v>
@@ -16370,15 +16373,15 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16443,10 +16446,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16511,10 +16514,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16574,15 +16577,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V203" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16647,10 +16650,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16715,10 +16718,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16783,10 +16786,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16851,10 +16854,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16919,10 +16922,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>25</x:v>
@@ -16982,15 +16985,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>24</x:v>
@@ -17055,10 +17058,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -17118,15 +17121,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17191,10 +17194,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17259,10 +17262,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17327,10 +17330,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17395,10 +17398,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17463,10 +17466,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17531,10 +17534,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17594,15 +17597,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17667,10 +17670,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17735,10 +17738,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17774,7 +17777,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>25</x:v>
@@ -17798,15 +17801,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17871,10 +17874,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>25</x:v>
@@ -17939,10 +17942,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -18007,10 +18010,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -18075,10 +18078,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -18143,10 +18146,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18211,10 +18214,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>25</x:v>
@@ -18279,10 +18282,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18347,10 +18350,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18415,10 +18418,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18483,10 +18486,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18551,10 +18554,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18619,10 +18622,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18637,7 +18640,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18682,15 +18685,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V234" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18755,10 +18758,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>25</x:v>
@@ -18794,7 +18797,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N236" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="O236" s="0" t="s">
         <x:v>32</x:v>
@@ -18818,15 +18821,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18891,10 +18894,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -18909,7 +18912,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G238" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="H238" s="0" t="s">
         <x:v>25</x:v>
@@ -18936,7 +18939,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -18954,15 +18957,15 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -19027,10 +19030,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -19045,7 +19048,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G240" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="H240" s="0" t="s">
         <x:v>25</x:v>
@@ -19090,15 +19093,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V240" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -19158,15 +19161,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19231,10 +19234,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19299,10 +19302,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19367,10 +19370,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19385,7 +19388,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G245" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H245" s="0" t="s">
         <x:v>25</x:v>
@@ -19435,10 +19438,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19498,15 +19501,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19571,10 +19574,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>25</x:v>
@@ -19639,10 +19642,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>27</x:v>
@@ -19657,7 +19660,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G249" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="H249" s="0" t="s">
         <x:v>32</x:v>
@@ -19678,13 +19681,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="P249" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="Q249" s="0" t="s">
         <x:v>41</x:v>
@@ -19702,15 +19705,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V249" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19775,10 +19778,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19838,15 +19841,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19911,10 +19914,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19979,10 +19982,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -20047,10 +20050,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -20115,10 +20118,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20183,10 +20186,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20251,10 +20254,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20319,10 +20322,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20387,10 +20390,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20455,10 +20458,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20523,10 +20526,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20591,10 +20594,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20659,10 +20662,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20677,7 +20680,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G264" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="H264" s="0" t="s">
         <x:v>25</x:v>
@@ -20722,15 +20725,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V264" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20795,10 +20798,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>25</x:v>
@@ -20863,10 +20866,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20931,10 +20934,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>25</x:v>
@@ -20999,10 +21002,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -21067,10 +21070,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -21135,10 +21138,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21203,10 +21206,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21271,10 +21274,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21339,10 +21342,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21407,10 +21410,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21475,10 +21478,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21543,10 +21546,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21611,10 +21614,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21679,10 +21682,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21747,10 +21750,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>32</x:v>
@@ -21765,7 +21768,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G280" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H280" s="0" t="s">
         <x:v>25</x:v>
@@ -21810,15 +21813,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="V280" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21883,10 +21886,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21951,10 +21954,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -22019,10 +22022,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>25</x:v>
@@ -22087,10 +22090,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>24</x:v>
@@ -22155,10 +22158,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22223,10 +22226,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>32</x:v>
@@ -22262,13 +22265,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N287" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="O287" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P287" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q287" s="0" t="s">
         <x:v>25</x:v>
@@ -22286,15 +22289,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="V287" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22359,10 +22362,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22427,10 +22430,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22495,10 +22498,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22563,10 +22566,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22631,10 +22634,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22699,10 +22702,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22767,10 +22770,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22835,10 +22838,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22903,10 +22906,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22971,10 +22974,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>32</x:v>
@@ -22989,7 +22992,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G298" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="H298" s="0" t="s">
         <x:v>25</x:v>
@@ -23010,7 +23013,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="N298" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="O298" s="0" t="s">
         <x:v>24</x:v>
@@ -23028,21 +23031,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T298" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="U298" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="V298" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -23102,15 +23105,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V299" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>
@@ -23175,10 +23178,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>25</x:v>
@@ -23243,10 +23246,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>25</x:v>
@@ -23311,10 +23314,10 @@
     </x:row>
     <x:row r="303" spans="1:22">
       <x:c r="A303" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="C303" s="0" t="s">
         <x:v>25</x:v>
@@ -23329,7 +23332,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G303" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="H303" s="0" t="s">
         <x:v>25</x:v>
@@ -23374,15 +23377,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V303" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:22">
       <x:c r="A304" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="C304" s="0" t="s">
         <x:v>25</x:v>
@@ -23418,7 +23421,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N304" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="O304" s="0" t="s">
         <x:v>25</x:v>
@@ -23442,15 +23445,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V304" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:22">
       <x:c r="A305" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
         <x:v>25</x:v>
@@ -23515,10 +23518,10 @@
     </x:row>
     <x:row r="306" spans="1:22">
       <x:c r="A306" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
         <x:v>25</x:v>
@@ -23578,15 +23581,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
       <x:c r="A307" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
         <x:v>25</x:v>
@@ -23651,10 +23654,10 @@
     </x:row>
     <x:row r="308" spans="1:22">
       <x:c r="A308" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
         <x:v>25</x:v>
@@ -23719,10 +23722,10 @@
     </x:row>
     <x:row r="309" spans="1:22">
       <x:c r="A309" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
         <x:v>25</x:v>
@@ -23787,10 +23790,10 @@
     </x:row>
     <x:row r="310" spans="1:22">
       <x:c r="A310" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="C310" s="0" t="s">
         <x:v>25</x:v>
@@ -23850,15 +23853,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
       <x:c r="A311" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="C311" s="0" t="s">
         <x:v>25</x:v>
@@ -23923,10 +23926,10 @@
     </x:row>
     <x:row r="312" spans="1:22">
       <x:c r="A312" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
         <x:v>25</x:v>
@@ -23941,7 +23944,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G312" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="H312" s="0" t="s">
         <x:v>25</x:v>
@@ -23991,10 +23994,10 @@
     </x:row>
     <x:row r="313" spans="1:22">
       <x:c r="A313" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="C313" s="0" t="s">
         <x:v>25</x:v>
@@ -24059,10 +24062,10 @@
     </x:row>
     <x:row r="314" spans="1:22">
       <x:c r="A314" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="C314" s="0" t="s">
         <x:v>25</x:v>
@@ -24122,15 +24125,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V314" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:22">
       <x:c r="A315" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="C315" s="0" t="s">
         <x:v>25</x:v>
@@ -24195,10 +24198,10 @@
     </x:row>
     <x:row r="316" spans="1:22">
       <x:c r="A316" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="C316" s="0" t="s">
         <x:v>25</x:v>
@@ -24263,10 +24266,10 @@
     </x:row>
     <x:row r="317" spans="1:22">
       <x:c r="A317" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="C317" s="0" t="s">
         <x:v>25</x:v>
@@ -24281,7 +24284,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G317" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H317" s="0" t="s">
         <x:v>25</x:v>
@@ -24326,15 +24329,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V317" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:22">
       <x:c r="A318" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="C318" s="0" t="s">
         <x:v>25</x:v>
@@ -24399,10 +24402,10 @@
     </x:row>
     <x:row r="319" spans="1:22">
       <x:c r="A319" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="C319" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -2194,7 +2194,7 @@
     <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
-    <x:t>135</x:t>
+    <x:t>133</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -22235,7 +22235,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D287" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E287" s="0" t="s">
         <x:v>25</x:v>
@@ -22265,7 +22265,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N287" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O287" s="0" t="s">
         <x:v>27</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -211,486 +211,489 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fridley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lino Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Callaway Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mapleton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagle Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleepy Eye Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chippewa County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fridley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lino Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Callaway Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mapleton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagle Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleepy Eye Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chippewa County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0210100</x:t>
   </x:si>
   <x:si>
@@ -1619,9 +1622,6 @@
   </x:si>
   <x:si>
     <x:t>Roseville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
   </x:si>
   <x:si>
     <x:t>MN0620900</x:t>
@@ -3476,7 +3476,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>25</x:v>
@@ -3497,7 +3497,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
         <x:v>25</x:v>
@@ -3521,15 +3521,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V11" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
       <x:c r="A12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>24</x:v>
@@ -3544,7 +3544,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
         <x:v>25</x:v>
@@ -3594,10 +3594,10 @@
     </x:row>
     <x:row r="13" spans="1:22">
       <x:c r="A13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>25</x:v>
@@ -3662,10 +3662,10 @@
     </x:row>
     <x:row r="14" spans="1:22">
       <x:c r="A14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>25</x:v>
@@ -3725,15 +3725,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V14" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:22">
       <x:c r="A15" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>24</x:v>
@@ -3748,7 +3748,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
         <x:v>25</x:v>
@@ -3793,15 +3793,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V15" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22">
       <x:c r="A16" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>24</x:v>
@@ -3861,15 +3861,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V16" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:22">
       <x:c r="A17" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>25</x:v>
@@ -3934,10 +3934,10 @@
     </x:row>
     <x:row r="18" spans="1:22">
       <x:c r="A18" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>25</x:v>
@@ -3961,7 +3961,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
         <x:v>25</x:v>
@@ -3973,7 +3973,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
         <x:v>25</x:v>
@@ -3997,15 +3997,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V18" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:22">
       <x:c r="A19" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>25</x:v>
@@ -4029,7 +4029,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
         <x:v>25</x:v>
@@ -4041,7 +4041,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
         <x:v>25</x:v>
@@ -4065,15 +4065,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V19" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
       <x:c r="A20" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>25</x:v>
@@ -4088,7 +4088,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
         <x:v>25</x:v>
@@ -4133,15 +4133,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22">
       <x:c r="A21" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>25</x:v>
@@ -4206,10 +4206,10 @@
     </x:row>
     <x:row r="22" spans="1:22">
       <x:c r="A22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>25</x:v>
@@ -4224,7 +4224,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
         <x:v>25</x:v>
@@ -4274,16 +4274,16 @@
     </x:row>
     <x:row r="23" spans="1:22">
       <x:c r="A23" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>25</x:v>
@@ -4292,7 +4292,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
         <x:v>25</x:v>
@@ -4337,15 +4337,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V23" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:22">
       <x:c r="A24" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>25</x:v>
@@ -4410,10 +4410,10 @@
     </x:row>
     <x:row r="25" spans="1:22">
       <x:c r="A25" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>25</x:v>
@@ -4478,10 +4478,10 @@
     </x:row>
     <x:row r="26" spans="1:22">
       <x:c r="A26" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>25</x:v>
@@ -4541,15 +4541,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:22">
       <x:c r="A27" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>25</x:v>
@@ -4614,10 +4614,10 @@
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="A28" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>25</x:v>
@@ -4629,7 +4629,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>46</x:v>
@@ -4682,10 +4682,10 @@
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>25</x:v>
@@ -4750,10 +4750,10 @@
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4768,7 +4768,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
         <x:v>24</x:v>
@@ -4777,7 +4777,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
         <x:v>25</x:v>
@@ -4813,15 +4813,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:22">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>25</x:v>
@@ -4836,7 +4836,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
         <x:v>25</x:v>
@@ -4881,15 +4881,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V31" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:22">
       <x:c r="A32" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>25</x:v>
@@ -4904,7 +4904,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
         <x:v>25</x:v>
@@ -4943,21 +4943,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T32" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="U32" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22">
       <x:c r="A33" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>25</x:v>
@@ -5022,10 +5022,10 @@
     </x:row>
     <x:row r="34" spans="1:22">
       <x:c r="A34" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>25</x:v>
@@ -5090,10 +5090,10 @@
     </x:row>
     <x:row r="35" spans="1:22">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>25</x:v>
@@ -5158,10 +5158,10 @@
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>25</x:v>
@@ -5176,7 +5176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
         <x:v>25</x:v>
@@ -5203,7 +5203,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P36" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
         <x:v>32</x:v>
@@ -5221,15 +5221,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V36" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>25</x:v>
@@ -5294,10 +5294,10 @@
     </x:row>
     <x:row r="38" spans="1:22">
       <x:c r="A38" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>25</x:v>
@@ -5362,10 +5362,10 @@
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="A39" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>25</x:v>
@@ -5430,10 +5430,10 @@
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="A40" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>25</x:v>
@@ -5475,7 +5475,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P40" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="s">
         <x:v>25</x:v>
@@ -5487,7 +5487,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T40" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U40" s="0" t="s">
         <x:v>25</x:v>
@@ -5498,10 +5498,10 @@
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="A41" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>25</x:v>
@@ -5561,30 +5561,30 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V41" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
       <x:c r="A42" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
         <x:v>32</x:v>
@@ -5596,7 +5596,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="K42" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
         <x:v>25</x:v>
@@ -5608,10 +5608,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Q42" s="0" t="s">
         <x:v>24</x:v>
@@ -5629,15 +5629,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V42" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="A43" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>25</x:v>
@@ -5702,10 +5702,10 @@
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="A44" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>25</x:v>
@@ -5770,10 +5770,10 @@
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="A45" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>25</x:v>
@@ -5833,15 +5833,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
@@ -5906,10 +5906,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>25</x:v>
@@ -5974,10 +5974,10 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>25</x:v>
@@ -6013,7 +6013,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
@@ -6037,15 +6037,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>41</x:v>
@@ -6060,7 +6060,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
         <x:v>24</x:v>
@@ -6081,7 +6081,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
         <x:v>25</x:v>
@@ -6099,21 +6099,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="U49" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="V49" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>25</x:v>
@@ -6178,10 +6178,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>25</x:v>
@@ -6241,15 +6241,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V51" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>25</x:v>
@@ -6314,10 +6314,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>25</x:v>
@@ -6332,7 +6332,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
         <x:v>25</x:v>
@@ -6377,7 +6377,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V53" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22">
@@ -6445,7 +6445,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V54" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:22">
@@ -6563,7 +6563,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="s">
         <x:v>25</x:v>
@@ -6631,7 +6631,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P57" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="s">
         <x:v>25</x:v>
@@ -6643,7 +6643,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T57" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U57" s="0" t="s">
         <x:v>47</x:v>
@@ -6767,7 +6767,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P59" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q59" s="0" t="s">
         <x:v>25</x:v>
@@ -6876,7 +6876,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
         <x:v>25</x:v>
@@ -6903,7 +6903,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="s">
         <x:v>25</x:v>
@@ -6921,7 +6921,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V61" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">
@@ -7077,10 +7077,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
         <x:v>25</x:v>
@@ -7533,15 +7533,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>41</x:v>
@@ -7601,15 +7601,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V71" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7674,10 +7674,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7742,10 +7742,10 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>25</x:v>
@@ -7810,10 +7810,10 @@
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>25</x:v>
@@ -7878,10 +7878,10 @@
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>25</x:v>
@@ -7946,10 +7946,10 @@
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>25</x:v>
@@ -8014,10 +8014,10 @@
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -8082,10 +8082,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>24</x:v>
@@ -8100,7 +8100,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
         <x:v>25</x:v>
@@ -8121,7 +8121,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
         <x:v>25</x:v>
@@ -8145,15 +8145,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V79" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>25</x:v>
@@ -8189,7 +8189,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="O80" s="0" t="s">
         <x:v>25</x:v>
@@ -8213,15 +8213,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -8286,10 +8286,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>32</x:v>
@@ -8304,7 +8304,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
         <x:v>25</x:v>
@@ -8325,7 +8325,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N82" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="O82" s="0" t="s">
         <x:v>25</x:v>
@@ -8343,21 +8343,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T82" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U82" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="V82" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8422,10 +8422,10 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>25</x:v>
@@ -8490,10 +8490,10 @@
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>41</x:v>
@@ -8535,7 +8535,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P85" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="Q85" s="0" t="s">
         <x:v>25</x:v>
@@ -8553,18 +8553,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
         <x:v>196</x:v>
@@ -8573,10 +8573,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
         <x:v>24</x:v>
@@ -8585,7 +8585,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="K86" s="0" t="s">
         <x:v>41</x:v>
@@ -8597,13 +8597,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N86" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O86" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="P86" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="s">
         <x:v>24</x:v>
@@ -8618,18 +8618,18 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="U86" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>32</x:v>
@@ -8665,7 +8665,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N87" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O87" s="0" t="s">
         <x:v>32</x:v>
@@ -8683,21 +8683,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T87" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U87" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="V87" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>24</x:v>
@@ -8739,7 +8739,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q88" s="0" t="s">
         <x:v>25</x:v>
@@ -8757,15 +8757,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>32</x:v>
@@ -8780,7 +8780,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
         <x:v>25</x:v>
@@ -8830,10 +8830,10 @@
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8898,10 +8898,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8916,7 +8916,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>25</x:v>
@@ -8925,7 +8925,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K91" s="0" t="s">
         <x:v>32</x:v>
@@ -8937,7 +8937,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N91" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O91" s="0" t="s">
         <x:v>25</x:v>
@@ -8961,15 +8961,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>25</x:v>
@@ -9029,15 +9029,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>32</x:v>
@@ -9102,10 +9102,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>24</x:v>
@@ -9165,18 +9165,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>29</x:v>
@@ -9185,10 +9185,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>32</x:v>
@@ -9197,7 +9197,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="K95" s="0" t="s">
         <x:v>24</x:v>
@@ -9209,7 +9209,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N95" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="O95" s="0" t="s">
         <x:v>25</x:v>
@@ -9227,21 +9227,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T95" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="U95" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -9306,16 +9306,16 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>25</x:v>
@@ -9324,7 +9324,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
         <x:v>25</x:v>
@@ -9345,7 +9345,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N97" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O97" s="0" t="s">
         <x:v>25</x:v>
@@ -9369,15 +9369,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9437,15 +9437,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V98" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9510,10 +9510,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9528,7 +9528,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H100" s="0" t="s">
         <x:v>25</x:v>
@@ -9537,7 +9537,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K100" s="0" t="s">
         <x:v>25</x:v>
@@ -9549,13 +9549,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N100" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="O100" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P100" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q100" s="0" t="s">
         <x:v>24</x:v>
@@ -9573,15 +9573,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>46</x:v>
@@ -9596,7 +9596,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
         <x:v>25</x:v>
@@ -9623,7 +9623,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P101" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="Q101" s="0" t="s">
         <x:v>25</x:v>
@@ -9641,15 +9641,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V101" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>46</x:v>
@@ -9691,7 +9691,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P102" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="s">
         <x:v>24</x:v>
@@ -9709,15 +9709,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9777,18 +9777,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V103" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
         <x:v>41</x:v>
@@ -9800,7 +9800,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H104" s="0" t="s">
         <x:v>25</x:v>
@@ -9809,7 +9809,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J104" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K104" s="0" t="s">
         <x:v>25</x:v>
@@ -9827,7 +9827,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="P104" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q104" s="0" t="s">
         <x:v>41</x:v>
@@ -9845,15 +9845,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V104" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9918,10 +9918,10 @@
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9986,10 +9986,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>24</x:v>
@@ -10004,7 +10004,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
         <x:v>25</x:v>
@@ -10025,7 +10025,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N107" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O107" s="0" t="s">
         <x:v>25</x:v>
@@ -10054,10 +10054,10 @@
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -10072,7 +10072,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="H108" s="0" t="s">
         <x:v>25</x:v>
@@ -10099,7 +10099,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P108" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="Q108" s="0" t="s">
         <x:v>25</x:v>
@@ -10117,15 +10117,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V108" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10140,7 +10140,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>24</x:v>
@@ -10149,7 +10149,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="J109" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="K109" s="0" t="s">
         <x:v>25</x:v>
@@ -10164,10 +10164,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O109" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="P109" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q109" s="0" t="s">
         <x:v>41</x:v>
@@ -10185,15 +10185,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10258,10 +10258,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10297,7 +10297,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N111" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O111" s="0" t="s">
         <x:v>25</x:v>
@@ -10321,15 +10321,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V111" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10394,10 +10394,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10462,10 +10462,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10530,10 +10530,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10598,10 +10598,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10666,10 +10666,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10729,18 +10729,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
         <x:v>56</x:v>
@@ -10761,7 +10761,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="J118" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="K118" s="0" t="s">
         <x:v>25</x:v>
@@ -10773,7 +10773,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>27</x:v>
@@ -10794,18 +10794,18 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="U118" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10847,7 +10847,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P119" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q119" s="0" t="s">
         <x:v>24</x:v>
@@ -10870,10 +10870,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10938,16 +10938,16 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>25</x:v>
@@ -10956,7 +10956,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10965,7 +10965,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J121" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="K121" s="0" t="s">
         <x:v>25</x:v>
@@ -10977,7 +10977,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="O121" s="0" t="s">
         <x:v>25</x:v>
@@ -11001,15 +11001,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V121" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11024,7 +11024,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G122" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H122" s="0" t="s">
         <x:v>25</x:v>
@@ -11045,7 +11045,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N122" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O122" s="0" t="s">
         <x:v>25</x:v>
@@ -11074,10 +11074,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11137,15 +11137,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11205,15 +11205,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V124" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11278,10 +11278,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11296,7 +11296,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G126" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H126" s="0" t="s">
         <x:v>25</x:v>
@@ -11346,10 +11346,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11414,10 +11414,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11477,15 +11477,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11545,15 +11545,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11618,10 +11618,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11686,10 +11686,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11749,15 +11749,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11799,7 +11799,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P133" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q133" s="0" t="s">
         <x:v>25</x:v>
@@ -11822,10 +11822,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11885,15 +11885,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11908,7 +11908,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11917,7 +11917,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="J135" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="K135" s="0" t="s">
         <x:v>60</x:v>
@@ -11929,13 +11929,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P135" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="Q135" s="0" t="s">
         <x:v>24</x:v>
@@ -11953,15 +11953,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -12026,10 +12026,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -12094,10 +12094,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -12112,7 +12112,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G138" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H138" s="0" t="s">
         <x:v>25</x:v>
@@ -12133,7 +12133,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N138" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O138" s="0" t="s">
         <x:v>25</x:v>
@@ -12157,15 +12157,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12230,10 +12230,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12298,10 +12298,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12361,15 +12361,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V141" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12384,7 +12384,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G142" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H142" s="0" t="s">
         <x:v>25</x:v>
@@ -12411,7 +12411,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P142" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="Q142" s="0" t="s">
         <x:v>25</x:v>
@@ -12434,10 +12434,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12497,15 +12497,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12570,10 +12570,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12638,10 +12638,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12677,7 +12677,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N146" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O146" s="0" t="s">
         <x:v>25</x:v>
@@ -12701,15 +12701,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V146" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12724,7 +12724,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G147" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H147" s="0" t="s">
         <x:v>25</x:v>
@@ -12774,10 +12774,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12842,10 +12842,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12910,10 +12910,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12978,10 +12978,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -13017,7 +13017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N151" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O151" s="0" t="s">
         <x:v>25</x:v>
@@ -13041,15 +13041,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V151" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13114,10 +13114,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13182,10 +13182,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13245,15 +13245,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13318,10 +13318,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13386,10 +13386,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13404,7 +13404,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G157" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H157" s="0" t="s">
         <x:v>25</x:v>
@@ -13425,7 +13425,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>25</x:v>
@@ -13449,15 +13449,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13522,10 +13522,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13590,10 +13590,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13653,15 +13653,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13703,7 +13703,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13721,15 +13721,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13789,15 +13789,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V162" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13839,7 +13839,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P163" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="Q163" s="0" t="s">
         <x:v>24</x:v>
@@ -13857,15 +13857,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V163" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13930,10 +13930,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13998,10 +13998,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14061,15 +14061,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V166" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14111,7 +14111,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P167" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q167" s="0" t="s">
         <x:v>25</x:v>
@@ -14129,15 +14129,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V167" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14202,10 +14202,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14270,10 +14270,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14333,15 +14333,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V170" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14383,7 +14383,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P171" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="s">
         <x:v>25</x:v>
@@ -14406,10 +14406,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14474,10 +14474,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14492,7 +14492,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G173" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H173" s="0" t="s">
         <x:v>25</x:v>
@@ -14542,10 +14542,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14560,7 +14560,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G174" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H174" s="0" t="s">
         <x:v>25</x:v>
@@ -14610,10 +14610,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14628,7 +14628,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G175" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H175" s="0" t="s">
         <x:v>25</x:v>
@@ -14678,10 +14678,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14746,10 +14746,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14764,7 +14764,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G177" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H177" s="0" t="s">
         <x:v>25</x:v>
@@ -14785,7 +14785,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14803,21 +14803,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T177" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="U177" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14882,10 +14882,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14909,7 +14909,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J179" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K179" s="0" t="s">
         <x:v>25</x:v>
@@ -14927,7 +14927,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P179" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="s">
         <x:v>41</x:v>
@@ -14945,30 +14945,30 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F180" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14989,13 +14989,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="N180" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O180" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15013,15 +15013,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15036,7 +15036,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G181" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H181" s="0" t="s">
         <x:v>25</x:v>
@@ -15057,7 +15057,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N181" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="O181" s="0" t="s">
         <x:v>24</x:v>
@@ -15081,15 +15081,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15104,7 +15104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G182" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H182" s="0" t="s">
         <x:v>25</x:v>
@@ -15125,13 +15125,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N182" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O182" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P182" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q182" s="0" t="s">
         <x:v>32</x:v>
@@ -15154,10 +15154,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15222,10 +15222,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15290,10 +15290,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15335,7 +15335,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P185" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q185" s="0" t="s">
         <x:v>25</x:v>
@@ -15358,10 +15358,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15403,7 +15403,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="P186" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="s">
         <x:v>25</x:v>
@@ -15421,15 +15421,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V186" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15441,10 +15441,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F187" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G187" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="H187" s="0" t="s">
         <x:v>24</x:v>
@@ -15465,7 +15465,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N187" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="O187" s="0" t="s">
         <x:v>25</x:v>
@@ -15486,18 +15486,18 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U187" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15557,15 +15557,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15625,15 +15625,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15669,7 +15669,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N190" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="O190" s="0" t="s">
         <x:v>24</x:v>
@@ -15687,21 +15687,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T190" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U190" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="V190" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15716,7 +15716,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -15737,7 +15737,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N191" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="O191" s="0" t="s">
         <x:v>32</x:v>
@@ -15755,21 +15755,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T191" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U191" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15834,10 +15834,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15902,10 +15902,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>32</x:v>
@@ -15920,7 +15920,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G194" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H194" s="0" t="s">
         <x:v>25</x:v>
@@ -15941,7 +15941,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N194" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O194" s="0" t="s">
         <x:v>25</x:v>
@@ -15965,15 +15965,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>24</x:v>
@@ -15988,7 +15988,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G195" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H195" s="0" t="s">
         <x:v>25</x:v>
@@ -15997,7 +15997,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J195" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K195" s="0" t="s">
         <x:v>25</x:v>
@@ -16009,7 +16009,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N195" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="O195" s="0" t="s">
         <x:v>25</x:v>
@@ -16027,21 +16027,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T195" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U195" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -16106,10 +16106,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>27</x:v>
@@ -16145,7 +16145,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N197" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O197" s="0" t="s">
         <x:v>25</x:v>
@@ -16169,15 +16169,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V197" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16213,7 +16213,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N198" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O198" s="0" t="s">
         <x:v>25</x:v>
@@ -16237,15 +16237,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V198" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>24</x:v>
@@ -16287,7 +16287,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P199" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="Q199" s="0" t="s">
         <x:v>25</x:v>
@@ -16299,13 +16299,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T199" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="U199" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -16316,7 +16316,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
         <x:v>34</x:v>
@@ -16325,10 +16325,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="G200" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H200" s="0" t="s">
         <x:v>25</x:v>
@@ -16337,7 +16337,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="J200" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K200" s="0" t="s">
         <x:v>24</x:v>
@@ -16346,7 +16346,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M200" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N200" s="0" t="s">
         <x:v>36</x:v>
@@ -16355,7 +16355,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P200" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="s">
         <x:v>27</x:v>
@@ -16559,7 +16559,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P203" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="Q203" s="0" t="s">
         <x:v>25</x:v>
@@ -16668,7 +16668,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G205" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H205" s="0" t="s">
         <x:v>25</x:v>
@@ -16695,7 +16695,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P205" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Q205" s="0" t="s">
         <x:v>24</x:v>
@@ -16713,7 +16713,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V205" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:22">
@@ -16961,7 +16961,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>25</x:v>
@@ -16985,7 +16985,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -17035,7 +17035,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P210" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q210" s="0" t="s">
         <x:v>25</x:v>
@@ -17053,7 +17053,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V210" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:22">
@@ -17121,7 +17121,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -17393,7 +17393,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V215" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -17561,7 +17561,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J218" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K218" s="0" t="s">
         <x:v>25</x:v>
@@ -17573,7 +17573,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N218" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O218" s="0" t="s">
         <x:v>25</x:v>
@@ -17756,7 +17756,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>25</x:v>
@@ -18055,7 +18055,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P225" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="s">
         <x:v>25</x:v>
@@ -18413,7 +18413,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V230" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -18481,7 +18481,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -18617,7 +18617,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V233" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -18631,7 +18631,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E234" s="0" t="s">
         <x:v>25</x:v>
@@ -18640,7 +18640,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18661,7 +18661,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N234" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="O234" s="0" t="s">
         <x:v>24</x:v>
@@ -18729,7 +18729,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N235" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O235" s="0" t="s">
         <x:v>25</x:v>
@@ -18753,7 +18753,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V235" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -18767,7 +18767,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>24</x:v>
@@ -18797,7 +18797,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N236" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="O236" s="0" t="s">
         <x:v>32</x:v>
@@ -18903,7 +18903,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>25</x:v>
@@ -18939,7 +18939,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -18954,7 +18954,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="U238" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
         <x:v>622</x:v>
@@ -18980,7 +18980,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G239" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H239" s="0" t="s">
         <x:v>25</x:v>
@@ -19025,7 +19025,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V239" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:22">
@@ -19048,7 +19048,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G240" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="H240" s="0" t="s">
         <x:v>25</x:v>
@@ -19161,7 +19161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -19229,7 +19229,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V242" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:22">
@@ -19297,7 +19297,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V243" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">
@@ -19388,7 +19388,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G245" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H245" s="0" t="s">
         <x:v>25</x:v>
@@ -19433,7 +19433,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V245" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -19501,7 +19501,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19651,13 +19651,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F249" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G249" s="0" t="s">
         <x:v>646</x:v>
@@ -19666,7 +19666,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I249" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J249" s="0" t="s">
         <x:v>208</x:v>
@@ -19681,7 +19681,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>56</x:v>
@@ -19696,10 +19696,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S249" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="T249" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="U249" s="0" t="s">
         <x:v>46</x:v>
@@ -19796,7 +19796,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G251" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H251" s="0" t="s">
         <x:v>25</x:v>
@@ -19841,7 +19841,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -20045,7 +20045,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V254" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
@@ -20095,7 +20095,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P255" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Q255" s="0" t="s">
         <x:v>25</x:v>
@@ -20113,7 +20113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
@@ -20680,7 +20680,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G264" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="H264" s="0" t="s">
         <x:v>25</x:v>
@@ -20701,7 +20701,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N264" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O264" s="0" t="s">
         <x:v>25</x:v>
@@ -21020,7 +21020,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G269" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H269" s="0" t="s">
         <x:v>25</x:v>
@@ -21088,7 +21088,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G270" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H270" s="0" t="s">
         <x:v>25</x:v>
@@ -21700,7 +21700,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G279" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H279" s="0" t="s">
         <x:v>25</x:v>
@@ -21721,7 +21721,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N279" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O279" s="0" t="s">
         <x:v>25</x:v>
@@ -21745,7 +21745,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V279" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:22">
@@ -21768,7 +21768,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G280" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H280" s="0" t="s">
         <x:v>25</x:v>
@@ -21777,7 +21777,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="J280" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K280" s="0" t="s">
         <x:v>24</x:v>
@@ -21789,7 +21789,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N280" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="O280" s="0" t="s">
         <x:v>60</x:v>
@@ -21904,7 +21904,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G282" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H282" s="0" t="s">
         <x:v>25</x:v>
@@ -22017,7 +22017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V283" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:22">
@@ -22153,7 +22153,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V285" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:22">
@@ -22176,7 +22176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G286" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H286" s="0" t="s">
         <x:v>25</x:v>
@@ -22197,7 +22197,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N286" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O286" s="0" t="s">
         <x:v>25</x:v>
@@ -22221,7 +22221,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V286" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:22">
@@ -22235,7 +22235,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D287" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E287" s="0" t="s">
         <x:v>25</x:v>
@@ -22244,7 +22244,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G287" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H287" s="0" t="s">
         <x:v>25</x:v>
@@ -22253,7 +22253,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J287" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="K287" s="0" t="s">
         <x:v>25</x:v>
@@ -22265,13 +22265,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N287" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O287" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P287" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q287" s="0" t="s">
         <x:v>25</x:v>
@@ -22425,7 +22425,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V289" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:22">
@@ -22516,7 +22516,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G291" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H291" s="0" t="s">
         <x:v>25</x:v>
@@ -22561,7 +22561,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V291" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:22">
@@ -22629,7 +22629,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
@@ -22673,7 +22673,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N293" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O293" s="0" t="s">
         <x:v>24</x:v>
@@ -22720,7 +22720,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G294" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H294" s="0" t="s">
         <x:v>25</x:v>
@@ -22765,7 +22765,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V294" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:22">
@@ -22901,7 +22901,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V296" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:22">
@@ -22983,7 +22983,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D298" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E298" s="0" t="s">
         <x:v>24</x:v>
@@ -23010,7 +23010,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M298" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N298" s="0" t="s">
         <x:v>750</x:v>
@@ -23019,7 +23019,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P298" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Q298" s="0" t="s">
         <x:v>24</x:v>
@@ -23031,7 +23031,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T298" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="U298" s="0" t="s">
         <x:v>189</x:v>
@@ -23105,7 +23105,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V299" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:22">
@@ -23264,7 +23264,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G302" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H302" s="0" t="s">
         <x:v>25</x:v>
@@ -23309,7 +23309,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V302" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:22">
@@ -23421,7 +23421,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N304" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="O304" s="0" t="s">
         <x:v>25</x:v>
@@ -23545,7 +23545,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J306" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K306" s="0" t="s">
         <x:v>25</x:v>
@@ -23557,7 +23557,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N306" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="O306" s="0" t="s">
         <x:v>25</x:v>
@@ -23575,7 +23575,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T306" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="U306" s="0" t="s">
         <x:v>27</x:v>
@@ -23785,7 +23785,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">
@@ -23808,7 +23808,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G310" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H310" s="0" t="s">
         <x:v>25</x:v>
@@ -23876,7 +23876,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G311" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H311" s="0" t="s">
         <x:v>25</x:v>
@@ -23935,7 +23935,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D312" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E312" s="0" t="s">
         <x:v>25</x:v>
@@ -23944,7 +23944,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G312" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="H312" s="0" t="s">
         <x:v>25</x:v>
@@ -24125,7 +24125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V314" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:22">
@@ -24139,7 +24139,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D315" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E315" s="0" t="s">
         <x:v>25</x:v>
@@ -24148,7 +24148,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G315" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H315" s="0" t="s">
         <x:v>25</x:v>
@@ -24169,7 +24169,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N315" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="O315" s="0" t="s">
         <x:v>25</x:v>
@@ -24193,7 +24193,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V315" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:22">
@@ -24261,7 +24261,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V316" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:22">
@@ -24284,7 +24284,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G317" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H317" s="0" t="s">
         <x:v>25</x:v>
@@ -24329,7 +24329,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V317" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:22">
@@ -24352,7 +24352,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G318" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H318" s="0" t="s">
         <x:v>25</x:v>
@@ -24420,7 +24420,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G319" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H319" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -211,1417 +211,1417 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fridley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lino Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Callaway Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mapleton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagle Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleepy Eye Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chippewa County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnebago Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chatfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bovey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nashwauk Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0350000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0370000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac Qui Parle County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cleveland Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0410000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winsted Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0450000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburn Welcome Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Onamia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royalton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rochester Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fergus Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perham Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York Mills Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thief River Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0580000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0590000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crookston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Grand Forks Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glenwood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maplewood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mounds View Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Brighton Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseville Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fridley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lino Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Callaway Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mapleton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagle Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleepy Eye Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chippewa County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnebago Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chatfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>683</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bovey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nashwauk Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0350000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0370000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac Qui Parle County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cleveland Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0410000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winsted Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0450000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburn Welcome Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Onamia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Royalton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rochester Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fergus Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perham Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Mills Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thief River Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0580000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0590000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crookston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Grand Forks Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glenwood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maplewood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mounds View Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Brighton Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseville Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0620900</x:t>
@@ -7533,15 +7533,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="B71" s="0" t="s">
-        <x:v>227</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>41</x:v>
@@ -7601,15 +7601,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V71" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
         <x:v>229</x:v>
-      </x:c>
-      <x:c r="B72" s="0" t="s">
-        <x:v>230</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7674,10 +7674,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="B73" s="0" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7742,10 +7742,10 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="B74" s="0" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>25</x:v>
@@ -7810,10 +7810,10 @@
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="B75" s="0" t="s">
-        <x:v>236</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>25</x:v>
@@ -7878,10 +7878,10 @@
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
         <x:v>237</x:v>
-      </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>238</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>25</x:v>
@@ -7946,10 +7946,10 @@
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
         <x:v>239</x:v>
-      </x:c>
-      <x:c r="B77" s="0" t="s">
-        <x:v>240</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>25</x:v>
@@ -8014,10 +8014,10 @@
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="B78" s="0" t="s">
-        <x:v>242</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -8082,10 +8082,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
         <x:v>243</x:v>
-      </x:c>
-      <x:c r="B79" s="0" t="s">
-        <x:v>244</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>24</x:v>
@@ -8100,7 +8100,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
         <x:v>25</x:v>
@@ -8121,7 +8121,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
         <x:v>25</x:v>
@@ -8145,15 +8145,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V79" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
         <x:v>248</x:v>
-      </x:c>
-      <x:c r="B80" s="0" t="s">
-        <x:v>249</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>25</x:v>
@@ -8213,15 +8213,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
         <x:v>251</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="s">
-        <x:v>252</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -8286,10 +8286,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
         <x:v>253</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>254</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>32</x:v>
@@ -8304,7 +8304,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
         <x:v>25</x:v>
@@ -8325,7 +8325,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N82" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O82" s="0" t="s">
         <x:v>25</x:v>
@@ -8349,15 +8349,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V82" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
         <x:v>258</x:v>
-      </x:c>
-      <x:c r="B83" s="0" t="s">
-        <x:v>259</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>25</x:v>
@@ -8422,10 +8422,10 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
         <x:v>260</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>261</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>25</x:v>
@@ -8490,10 +8490,10 @@
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
         <x:v>262</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>263</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>41</x:v>
@@ -8535,7 +8535,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P85" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="Q85" s="0" t="s">
         <x:v>25</x:v>
@@ -8553,18 +8553,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="B86" s="0" t="s">
+      <x:c r="C86" s="0" t="s">
         <x:v>267</x:v>
-      </x:c>
-      <x:c r="C86" s="0" t="s">
-        <x:v>268</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
         <x:v>196</x:v>
@@ -8573,10 +8573,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
         <x:v>24</x:v>
@@ -8585,7 +8585,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="K86" s="0" t="s">
         <x:v>41</x:v>
@@ -8600,10 +8600,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="O86" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="P86" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="s">
         <x:v>24</x:v>
@@ -8618,18 +8618,18 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="U86" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
         <x:v>272</x:v>
-      </x:c>
-      <x:c r="B87" s="0" t="s">
-        <x:v>273</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>32</x:v>
@@ -8689,15 +8689,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V87" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
         <x:v>274</x:v>
-      </x:c>
-      <x:c r="B88" s="0" t="s">
-        <x:v>275</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>24</x:v>
@@ -8757,15 +8757,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
         <x:v>277</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>278</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>32</x:v>
@@ -8830,10 +8830,10 @@
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
         <x:v>279</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>280</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8898,10 +8898,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
         <x:v>281</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>282</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8916,7 +8916,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>25</x:v>
@@ -8961,15 +8961,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
         <x:v>285</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>286</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>25</x:v>
@@ -9034,10 +9034,10 @@
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
         <x:v>287</x:v>
-      </x:c>
-      <x:c r="B93" s="0" t="s">
-        <x:v>288</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>32</x:v>
@@ -9102,10 +9102,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>289</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>290</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>24</x:v>
@@ -9165,18 +9165,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
         <x:v>292</x:v>
       </x:c>
-      <x:c r="B95" s="0" t="s">
+      <x:c r="C95" s="0" t="s">
         <x:v>293</x:v>
-      </x:c>
-      <x:c r="C95" s="0" t="s">
-        <x:v>294</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>29</x:v>
@@ -9188,7 +9188,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>32</x:v>
@@ -9197,7 +9197,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="K95" s="0" t="s">
         <x:v>24</x:v>
@@ -9209,7 +9209,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N95" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="O95" s="0" t="s">
         <x:v>25</x:v>
@@ -9227,21 +9227,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="T95" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="U95" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="V95" s="0" t="s">
         <x:v>297</x:v>
-      </x:c>
-      <x:c r="V95" s="0" t="s">
-        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
         <x:v>299</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>300</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -9306,16 +9306,16 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
         <x:v>301</x:v>
       </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>25</x:v>
@@ -9369,15 +9369,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
         <x:v>304</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>305</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9442,10 +9442,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
         <x:v>306</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>307</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>25</x:v>
@@ -9510,10 +9510,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
         <x:v>308</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>309</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>25</x:v>
@@ -9573,15 +9573,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
         <x:v>311</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>312</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>46</x:v>
@@ -9596,7 +9596,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
         <x:v>25</x:v>
@@ -9623,7 +9623,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P101" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="Q101" s="0" t="s">
         <x:v>25</x:v>
@@ -9641,15 +9641,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V101" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
         <x:v>314</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>315</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>46</x:v>
@@ -9691,7 +9691,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P102" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="s">
         <x:v>24</x:v>
@@ -9709,15 +9709,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
         <x:v>316</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>317</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9777,15 +9777,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V103" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
         <x:v>318</x:v>
-      </x:c>
-      <x:c r="B104" s="0" t="s">
-        <x:v>319</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>74</x:v>
@@ -9850,10 +9850,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
         <x:v>320</x:v>
-      </x:c>
-      <x:c r="B105" s="0" t="s">
-        <x:v>321</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9918,10 +9918,10 @@
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
         <x:v>322</x:v>
-      </x:c>
-      <x:c r="B106" s="0" t="s">
-        <x:v>323</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9986,10 +9986,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
         <x:v>324</x:v>
-      </x:c>
-      <x:c r="B107" s="0" t="s">
-        <x:v>325</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>24</x:v>
@@ -10004,7 +10004,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
         <x:v>25</x:v>
@@ -10054,10 +10054,10 @@
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
         <x:v>327</x:v>
-      </x:c>
-      <x:c r="B108" s="0" t="s">
-        <x:v>328</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -10072,7 +10072,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="H108" s="0" t="s">
         <x:v>25</x:v>
@@ -10117,15 +10117,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V108" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="B109" s="0" t="s">
-        <x:v>331</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10140,7 +10140,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>24</x:v>
@@ -10149,7 +10149,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="J109" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="K109" s="0" t="s">
         <x:v>25</x:v>
@@ -10185,15 +10185,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
         <x:v>334</x:v>
-      </x:c>
-      <x:c r="B110" s="0" t="s">
-        <x:v>335</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10258,10 +10258,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
         <x:v>336</x:v>
-      </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>337</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10321,15 +10321,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V111" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="B112" s="0" t="s">
-        <x:v>339</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10394,10 +10394,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
         <x:v>340</x:v>
-      </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>341</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10462,10 +10462,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>343</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>25</x:v>
@@ -10530,10 +10530,10 @@
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>344</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>345</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10598,10 +10598,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>346</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>347</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10666,10 +10666,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>348</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>349</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10734,10 +10734,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>350</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>351</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>100</x:v>
@@ -10761,7 +10761,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="J118" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K118" s="0" t="s">
         <x:v>25</x:v>
@@ -10773,7 +10773,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N118" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="O118" s="0" t="s">
         <x:v>27</x:v>
@@ -10797,15 +10797,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V118" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>354</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>355</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10870,10 +10870,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>356</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>357</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>25</x:v>
@@ -10938,10 +10938,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>358</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>359</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10956,7 +10956,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>25</x:v>
@@ -10965,7 +10965,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J121" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="K121" s="0" t="s">
         <x:v>25</x:v>
@@ -10977,39 +10977,39 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N121" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="O121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U121" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V121" s="0" t="s">
         <x:v>361</x:v>
-      </x:c>
-      <x:c r="O121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U121" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V121" s="0" t="s">
-        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>363</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>364</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -11074,10 +11074,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>365</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>366</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11137,15 +11137,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V123" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>368</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>369</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11210,10 +11210,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>370</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>371</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11278,10 +11278,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>372</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>373</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11346,10 +11346,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>374</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>375</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11414,10 +11414,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>376</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>377</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11482,10 +11482,10 @@
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>378</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>379</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11550,10 +11550,10 @@
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>380</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>381</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11618,10 +11618,10 @@
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>382</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>383</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11686,10 +11686,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>384</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>385</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>24</x:v>
@@ -11754,10 +11754,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>386</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>387</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11822,10 +11822,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>388</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>389</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11885,15 +11885,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>391</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>392</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11908,7 +11908,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
         <x:v>25</x:v>
@@ -11917,7 +11917,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="J135" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K135" s="0" t="s">
         <x:v>60</x:v>
@@ -11929,7 +11929,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="N135" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
         <x:v>24</x:v>
@@ -11953,15 +11953,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>395</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>396</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -12026,10 +12026,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>397</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>398</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -12094,11 +12094,11 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>399</x:v>
       </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -12112,7 +12112,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G138" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H138" s="0" t="s">
         <x:v>25</x:v>
@@ -12157,15 +12157,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>401</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>402</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12230,10 +12230,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>403</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>404</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12298,10 +12298,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>405</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>406</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12366,10 +12366,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>407</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>408</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12434,10 +12434,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>409</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>410</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12502,10 +12502,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>411</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>412</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12570,10 +12570,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>413</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>414</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12638,10 +12638,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>415</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>416</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12706,10 +12706,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>417</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>418</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12724,7 +12724,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G147" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H147" s="0" t="s">
         <x:v>25</x:v>
@@ -12774,10 +12774,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>419</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>420</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12842,10 +12842,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>421</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>422</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12910,10 +12910,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>423</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>424</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12978,10 +12978,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>425</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>426</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -13041,15 +13041,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V151" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>428</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>429</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -13114,10 +13114,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>430</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>431</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13182,10 +13182,10 @@
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>432</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>433</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>24</x:v>
@@ -13245,15 +13245,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>434</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>435</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13318,10 +13318,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>436</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13386,10 +13386,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>438</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>439</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13425,7 +13425,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N157" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="O157" s="0" t="s">
         <x:v>25</x:v>
@@ -13454,10 +13454,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>440</x:v>
-      </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>441</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13522,10 +13522,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>442</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>443</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13590,10 +13590,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>444</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>445</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13653,15 +13653,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>446</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>447</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13703,7 +13703,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P161" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="Q161" s="0" t="s">
         <x:v>25</x:v>
@@ -13721,15 +13721,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V161" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>449</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>450</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13794,10 +13794,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>451</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>452</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13862,10 +13862,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>454</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13930,10 +13930,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>455</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>456</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13998,10 +13998,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>457</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>458</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -14061,15 +14061,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V166" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>459</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>460</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -14134,10 +14134,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>461</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>462</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>25</x:v>
@@ -14202,10 +14202,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>463</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>464</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14270,10 +14270,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>465</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>466</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14333,15 +14333,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V170" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
         <x:v>467</x:v>
-      </x:c>
-      <x:c r="B171" s="0" t="s">
-        <x:v>468</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>25</x:v>
@@ -14406,10 +14406,10 @@
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>469</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>470</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14474,10 +14474,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>471</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>472</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14542,10 +14542,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>473</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>474</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14610,10 +14610,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
         <x:v>475</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>476</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14678,10 +14678,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
         <x:v>477</x:v>
-      </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>478</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14746,10 +14746,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
         <x:v>479</x:v>
-      </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>480</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>41</x:v>
@@ -14785,7 +14785,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N177" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="O177" s="0" t="s">
         <x:v>41</x:v>
@@ -14809,15 +14809,15 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
         <x:v>483</x:v>
-      </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>484</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>25</x:v>
@@ -14882,10 +14882,10 @@
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
         <x:v>485</x:v>
-      </x:c>
-      <x:c r="B179" s="0" t="s">
-        <x:v>486</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14927,7 +14927,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P179" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="Q179" s="0" t="s">
         <x:v>41</x:v>
@@ -14945,15 +14945,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>488</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>489</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>28</x:v>
@@ -14968,7 +14968,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G180" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H180" s="0" t="s">
         <x:v>25</x:v>
@@ -14995,7 +14995,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>46</x:v>
@@ -15013,15 +15013,15 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>493</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>494</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -15036,7 +15036,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G181" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H181" s="0" t="s">
         <x:v>25</x:v>
@@ -15057,7 +15057,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N181" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="O181" s="0" t="s">
         <x:v>24</x:v>
@@ -15086,10 +15086,10 @@
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>495</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>496</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -15154,10 +15154,10 @@
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>497</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>498</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15222,10 +15222,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>499</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>500</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15290,10 +15290,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>501</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>502</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15358,10 +15358,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>503</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>504</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15426,10 +15426,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>505</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>506</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>25</x:v>
@@ -15444,7 +15444,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="G187" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H187" s="0" t="s">
         <x:v>24</x:v>
@@ -15489,15 +15489,15 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>508</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>509</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>25</x:v>
@@ -15557,15 +15557,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>510</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>511</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>25</x:v>
@@ -15625,15 +15625,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>513</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>514</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15669,7 +15669,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N190" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="O190" s="0" t="s">
         <x:v>24</x:v>
@@ -15698,10 +15698,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>25</x:v>
@@ -15716,7 +15716,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>25</x:v>
@@ -15737,7 +15737,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N191" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O191" s="0" t="s">
         <x:v>32</x:v>
@@ -15761,15 +15761,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V191" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>518</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>519</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>25</x:v>
@@ -15834,10 +15834,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>520</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>521</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>25</x:v>
@@ -15902,10 +15902,10 @@
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>522</x:v>
-      </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>523</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>32</x:v>
@@ -15920,7 +15920,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G194" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H194" s="0" t="s">
         <x:v>25</x:v>
@@ -15965,15 +15965,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V194" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>525</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>526</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>24</x:v>
@@ -16009,7 +16009,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N195" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="O195" s="0" t="s">
         <x:v>25</x:v>
@@ -16033,15 +16033,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>528</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>529</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -16106,10 +16106,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>530</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>531</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>27</x:v>
@@ -16169,15 +16169,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V197" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>532</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>533</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16242,10 +16242,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>534</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>535</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>24</x:v>
@@ -16287,7 +16287,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P199" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="Q199" s="0" t="s">
         <x:v>25</x:v>
@@ -16305,7 +16305,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V199" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:22">
@@ -16325,10 +16325,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="G200" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="H200" s="0" t="s">
         <x:v>25</x:v>
@@ -16355,7 +16355,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P200" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="Q200" s="0" t="s">
         <x:v>27</x:v>
@@ -16559,7 +16559,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P203" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="Q203" s="0" t="s">
         <x:v>25</x:v>
@@ -16985,7 +16985,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -17121,7 +17121,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V211" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">
@@ -18617,7 +18617,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V233" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -18640,7 +18640,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18797,7 +18797,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="N236" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="O236" s="0" t="s">
         <x:v>32</x:v>
@@ -18939,7 +18939,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -19048,7 +19048,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G240" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="H240" s="0" t="s">
         <x:v>25</x:v>
@@ -19161,7 +19161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
@@ -19388,7 +19388,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G245" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H245" s="0" t="s">
         <x:v>25</x:v>
@@ -19501,7 +19501,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V246" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:22">
@@ -19651,7 +19651,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>24</x:v>
@@ -19681,7 +19681,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="N249" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="O249" s="0" t="s">
         <x:v>56</x:v>
@@ -19841,7 +19841,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -20113,7 +20113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
@@ -20680,7 +20680,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G264" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="H264" s="0" t="s">
         <x:v>25</x:v>
@@ -20701,7 +20701,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N264" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="O264" s="0" t="s">
         <x:v>25</x:v>
@@ -21768,7 +21768,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G280" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H280" s="0" t="s">
         <x:v>25</x:v>
@@ -21789,7 +21789,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N280" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="O280" s="0" t="s">
         <x:v>60</x:v>
@@ -22253,7 +22253,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J287" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="K287" s="0" t="s">
         <x:v>25</x:v>
@@ -22425,7 +22425,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V289" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:22">
@@ -23031,7 +23031,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T298" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="U298" s="0" t="s">
         <x:v>189</x:v>
@@ -23105,7 +23105,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V299" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:22">
@@ -23264,7 +23264,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G302" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H302" s="0" t="s">
         <x:v>25</x:v>
@@ -23309,7 +23309,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V302" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:22">
@@ -23421,7 +23421,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N304" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="O304" s="0" t="s">
         <x:v>25</x:v>
@@ -23557,7 +23557,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N306" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O306" s="0" t="s">
         <x:v>25</x:v>
@@ -23785,7 +23785,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">
@@ -23876,7 +23876,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G311" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H311" s="0" t="s">
         <x:v>25</x:v>
@@ -23944,7 +23944,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G312" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="H312" s="0" t="s">
         <x:v>25</x:v>
@@ -24125,7 +24125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V314" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:22">
@@ -24169,7 +24169,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N315" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="O315" s="0" t="s">
         <x:v>25</x:v>
@@ -24284,7 +24284,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G317" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H317" s="0" t="s">
         <x:v>25</x:v>
@@ -24329,7 +24329,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V317" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -5439,7 +5439,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>25</x:v>
@@ -5475,7 +5475,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P40" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="s">
         <x:v>25</x:v>
@@ -5493,7 +5493,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2022.xlsx
@@ -1012,7 +1012,7 @@
     <x:t>85</x:t>
   </x:si>
   <x:si>
-    <x:t>211</x:t>
+    <x:t>215</x:t>
   </x:si>
   <x:si>
     <x:t>MN0272800</x:t>
@@ -2192,9 +2192,6 @@
   </x:si>
   <x:si>
     <x:t>Woodbury Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -10131,13 +10128,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
         <x:v>331</x:v>
@@ -10167,7 +10164,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="P109" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q109" s="0" t="s">
         <x:v>41</x:v>
@@ -10179,7 +10176,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T109" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="U109" s="0" t="s">
         <x:v>66</x:v>
@@ -22241,7 +22238,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F287" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G287" s="0" t="s">
         <x:v>133</x:v>
@@ -22265,7 +22262,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N287" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="O287" s="0" t="s">
         <x:v>27</x:v>
@@ -22289,15 +22286,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="V287" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>727</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>728</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22362,10 +22359,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
         <x:v>729</x:v>
-      </x:c>
-      <x:c r="B289" s="0" t="s">
-        <x:v>730</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22430,10 +22427,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
         <x:v>731</x:v>
-      </x:c>
-      <x:c r="B290" s="0" t="s">
-        <x:v>732</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22498,10 +22495,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>733</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>734</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22566,10 +22563,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
         <x:v>735</x:v>
-      </x:c>
-      <x:c r="B292" s="0" t="s">
-        <x:v>736</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22634,10 +22631,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
         <x:v>737</x:v>
-      </x:c>
-      <x:c r="B293" s="0" t="s">
-        <x:v>738</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22702,10 +22699,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
         <x:v>739</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>740</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22770,10 +22767,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
         <x:v>741</x:v>
-      </x:c>
-      <x:c r="B295" s="0" t="s">
-        <x:v>742</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22838,10 +22835,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
         <x:v>743</x:v>
-      </x:c>
-      <x:c r="B296" s="0" t="s">
-        <x:v>744</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22906,10 +22903,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
         <x:v>745</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>746</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22974,10 +22971,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
         <x:v>747</x:v>
-      </x:c>
-      <x:c r="B298" s="0" t="s">
-        <x:v>748</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>32</x:v>
@@ -22992,7 +22989,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G298" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="H298" s="0" t="s">
         <x:v>25</x:v>
@@ -23013,7 +23010,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="N298" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="O298" s="0" t="s">
         <x:v>24</x:v>
@@ -23037,15 +23034,15 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="V298" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>750</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
         <x:v>752</x:v>
-      </x:c>
-      <x:c r="B299" s="0" t="s">
-        <x:v>753</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -23110,10 +23107,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
         <x:v>754</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>755</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>
@@ -23178,10 +23175,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="B301" s="0" t="s">
         <x:v>756</x:v>
-      </x:c>
-      <x:c r="B301" s="0" t="s">
-        <x:v>757</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>25</x:v>
@@ -23246,10 +23243,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="B302" s="0" t="s">
         <x:v>758</x:v>
-      </x:c>
-      <x:c r="B302" s="0" t="s">
-        <x:v>759</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>25</x:v>
@@ -23314,78 +23311,78 @@
     </x:row>
     <x:row r="303" spans="1:22">
       <x:c r="A303" s="0" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="B303" s="0" t="s">
         <x:v>760</x:v>
       </x:c>
-      <x:c r="B303" s="0" t="s">
+      <x:c r="C303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D303" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G303" s="0" t="s">
         <x:v>761</x:v>
       </x:c>
-      <x:c r="C303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D303" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G303" s="0" t="s">
+      <x:c r="H303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J303" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="Q303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="V303" s="0" t="s">
         <x:v>762</x:v>
-      </x:c>
-      <x:c r="H303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J303" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="Q303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="T303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U303" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="V303" s="0" t="s">
-        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:22">
       <x:c r="A304" s="0" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="B304" s="0" t="s">
         <x:v>764</x:v>
-      </x:c>
-      <x:c r="B304" s="0" t="s">
-        <x:v>765</x:v>
       </x:c>
       <x:c r="C304" s="0" t="s">
         <x:v>25</x:v>
@@ -23445,15 +23442,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="V304" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>765</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:22">
       <x:c r="A305" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="B305" s="0" t="s">
         <x:v>767</x:v>
-      </x:c>
-      <x:c r="B305" s="0" t="s">
-        <x:v>768</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
         <x:v>25</x:v>
@@ -23518,10 +23515,10 @@
     </x:row>
     <x:row r="306" spans="1:22">
       <x:c r="A306" s="0" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="B306" s="0" t="s">
         <x:v>769</x:v>
-      </x:c>
-      <x:c r="B306" s="0" t="s">
-        <x:v>770</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
         <x:v>25</x:v>
@@ -23581,15 +23578,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
       <x:c r="A307" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="B307" s="0" t="s">
         <x:v>771</x:v>
-      </x:c>
-      <x:c r="B307" s="0" t="s">
-        <x:v>772</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
         <x:v>25</x:v>
@@ -23654,10 +23651,10 @@
     </x:row>
     <x:row r="308" spans="1:22">
       <x:c r="A308" s="0" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B308" s="0" t="s">
         <x:v>773</x:v>
-      </x:c>
-      <x:c r="B308" s="0" t="s">
-        <x:v>774</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
         <x:v>25</x:v>
@@ -23722,10 +23719,10 @@
     </x:row>
     <x:row r="309" spans="1:22">
       <x:c r="A309" s="0" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="B309" s="0" t="s">
         <x:v>775</x:v>
-      </x:c>
-      <x:c r="B309" s="0" t="s">
-        <x:v>776</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
         <x:v>25</x:v>
@@ -23790,10 +23787,10 @@
     </x:row>
     <x:row r="310" spans="1:22">
       <x:c r="A310" s="0" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="B310" s="0" t="s">
         <x:v>777</x:v>
-      </x:c>
-      <x:c r="B310" s="0" t="s">
-        <x:v>778</x:v>
       </x:c>
       <x:c r="C310" s="0" t="s">
         <x:v>25</x:v>
@@ -23858,10 +23855,10 @@
     </x:row>
     <x:row r="311" spans="1:22">
       <x:c r="A311" s="0" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="B311" s="0" t="s">
         <x:v>779</x:v>
-      </x:c>
-      <x:c r="B311" s="0" t="s">
-        <x:v>780</x:v>
       </x:c>
       <x:c r="C311" s="0" t="s">
         <x:v>25</x:v>
@@ -23926,10 +23923,10 @@
     </x:row>
     <x:row r="312" spans="1:22">
       <x:c r="A312" s="0" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="B312" s="0" t="s">
         <x:v>781</x:v>
-      </x:c>
-      <x:c r="B312" s="0" t="s">
-        <x:v>782</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
         <x:v>25</x:v>
@@ -23994,10 +23991,10 @@
     </x:row>
     <x:row r="313" spans="1:22">
       <x:c r="A313" s="0" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="B313" s="0" t="s">
         <x:v>783</x:v>
-      </x:c>
-      <x:c r="B313" s="0" t="s">
-        <x:v>784</x:v>
       </x:c>
       <x:c r="C313" s="0" t="s">
         <x:v>25</x:v>
@@ -24062,10 +24059,10 @@
     </x:row>
     <x:row r="314" spans="1:22">
       <x:c r="A314" s="0" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="B314" s="0" t="s">
         <x:v>785</x:v>
-      </x:c>
-      <x:c r="B314" s="0" t="s">
-        <x:v>786</x:v>
       </x:c>
       <x:c r="C314" s="0" t="s">
         <x:v>25</x:v>
@@ -24130,10 +24127,10 @@
     </x:row>
     <x:row r="315" spans="1:22">
       <x:c r="A315" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="B315" s="0" t="s">
         <x:v>787</x:v>
-      </x:c>
-      <x:c r="B315" s="0" t="s">
-        <x:v>788</x:v>
       </x:c>
       <x:c r="C315" s="0" t="s">
         <x:v>25</x:v>
@@ -24198,10 +24195,10 @@
     </x:row>
     <x:row r="316" spans="1:22">
       <x:c r="A316" s="0" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="B316" s="0" t="s">
         <x:v>789</x:v>
-      </x:c>
-      <x:c r="B316" s="0" t="s">
-        <x:v>790</x:v>
       </x:c>
       <x:c r="C316" s="0" t="s">
         <x:v>25</x:v>
@@ -24266,10 +24263,10 @@
     </x:row>
     <x:row r="317" spans="1:22">
       <x:c r="A317" s="0" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="B317" s="0" t="s">
         <x:v>791</x:v>
-      </x:c>
-      <x:c r="B317" s="0" t="s">
-        <x:v>792</x:v>
       </x:c>
       <x:c r="C317" s="0" t="s">
         <x:v>25</x:v>
@@ -24334,10 +24331,10 @@
     </x:row>
     <x:row r="318" spans="1:22">
       <x:c r="A318" s="0" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="B318" s="0" t="s">
         <x:v>793</x:v>
-      </x:c>
-      <x:c r="B318" s="0" t="s">
-        <x:v>794</x:v>
       </x:c>
       <x:c r="C318" s="0" t="s">
         <x:v>25</x:v>
@@ -24402,10 +24399,10 @@
     </x:row>
     <x:row r="319" spans="1:22">
       <x:c r="A319" s="0" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="B319" s="0" t="s">
         <x:v>795</x:v>
-      </x:c>
-      <x:c r="B319" s="0" t="s">
-        <x:v>796</x:v>
       </x:c>
       <x:c r="C319" s="0" t="s">
         <x:v>25</x:v>
